--- a/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
+++ b/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5076A7-9FEC-4732-9262-503ABCF8EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDFCEBF-5808-47A8-AECB-B391D12A3507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5175" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="4020" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
     <col min="22" max="29" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -907,12 +907,8 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1000</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -937,7 +933,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -947,8 +943,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5">
-        <f>G2*0.6</f>
-        <v>1152</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="5">
         <v>10</v>
@@ -983,7 +978,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1027,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1062,7 +1057,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1092,7 +1087,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1122,7 +1117,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1152,7 +1147,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1182,7 +1177,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1212,7 +1207,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1242,7 +1237,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1272,7 +1267,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1302,7 +1297,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1332,7 +1327,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1362,7 +1357,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1392,7 +1387,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1422,7 +1417,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1452,7 +1447,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1482,7 +1477,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1512,7 +1507,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1542,7 +1537,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1572,7 +1567,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1602,7 +1597,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1632,7 +1627,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1662,7 +1657,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1692,7 +1687,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1722,7 +1717,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1752,7 +1747,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1782,7 +1777,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1812,7 +1807,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1842,7 +1837,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1872,7 +1867,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1902,7 +1897,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1932,7 +1927,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1962,7 +1957,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1992,7 +1987,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2022,7 +2017,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2052,7 +2047,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2082,7 +2077,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2112,7 +2107,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2142,7 +2137,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2172,7 +2167,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2202,7 +2197,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2232,7 +2227,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2262,7 +2257,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2292,7 +2287,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2322,7 +2317,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2352,7 +2347,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2382,7 +2377,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2412,7 +2407,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2442,7 +2437,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2472,7 +2467,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2502,7 +2497,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2532,7 +2527,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2562,7 +2557,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2592,7 +2587,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2622,7 +2617,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2652,7 +2647,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2682,7 +2677,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2712,7 +2707,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2742,7 +2737,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2772,7 +2767,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2802,7 +2797,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2832,7 +2827,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2862,7 +2857,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2892,7 +2887,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2922,7 +2917,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2952,7 +2947,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2982,7 +2977,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3012,7 +3007,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3042,7 +3037,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3072,7 +3067,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3102,7 +3097,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3132,7 +3127,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3162,7 +3157,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3192,7 +3187,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3222,7 +3217,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3252,7 +3247,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3282,7 +3277,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3312,7 +3307,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3342,7 +3337,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3372,7 +3367,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3402,7 +3397,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3432,7 +3427,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3462,7 +3457,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3492,7 +3487,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3522,7 +3517,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3552,7 +3547,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3582,7 +3577,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3612,7 +3607,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3642,7 +3637,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3672,7 +3667,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3702,7 +3697,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3732,7 +3727,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3762,7 +3757,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3792,7 +3787,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3822,7 +3817,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3852,7 +3847,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3882,7 +3877,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3912,7 +3907,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3942,7 +3937,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3972,7 +3967,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4002,7 +3997,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4032,7 +4027,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4062,7 +4057,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4092,7 +4087,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4122,7 +4117,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4152,7 +4147,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4182,7 +4177,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4212,7 +4207,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4242,7 +4237,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4272,7 +4267,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4302,7 +4297,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4332,7 +4327,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4362,7 +4357,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4392,7 +4387,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4422,7 +4417,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4452,7 +4447,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4482,7 +4477,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4512,7 +4507,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4542,7 +4537,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4572,7 +4567,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4602,7 +4597,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4632,7 +4627,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4662,7 +4657,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4692,7 +4687,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4722,7 +4717,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4752,7 +4747,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4782,7 +4777,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4812,7 +4807,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4842,7 +4837,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4872,7 +4867,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4902,7 +4897,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4932,7 +4927,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4962,7 +4957,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4992,7 +4987,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5022,7 +5017,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5052,7 +5047,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5082,7 +5077,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5112,7 +5107,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5142,7 +5137,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5172,7 +5167,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5202,7 +5197,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5232,7 +5227,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5262,7 +5257,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5292,7 +5287,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5322,7 +5317,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5352,7 +5347,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5382,7 +5377,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5412,7 +5407,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5442,7 +5437,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5472,7 +5467,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5502,7 +5497,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5532,7 +5527,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5562,7 +5557,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5592,7 +5587,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5622,7 +5617,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5652,7 +5647,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5682,7 +5677,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5712,7 +5707,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5742,7 +5737,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5772,7 +5767,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5802,7 +5797,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5832,7 +5827,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5862,7 +5857,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5892,7 +5887,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5922,7 +5917,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5952,7 +5947,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5982,7 +5977,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6012,7 +6007,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6042,7 +6037,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6072,7 +6067,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6102,7 +6097,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6132,7 +6127,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6162,7 +6157,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6192,7 +6187,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6222,7 +6217,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6252,7 +6247,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6282,7 +6277,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6312,7 +6307,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6342,7 +6337,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6372,7 +6367,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6402,7 +6397,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6432,7 +6427,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6462,7 +6457,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6492,7 +6487,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6522,7 +6517,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6552,7 +6547,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6582,7 +6577,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6612,7 +6607,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6642,7 +6637,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6672,7 +6667,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6702,7 +6697,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6732,7 +6727,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6762,7 +6757,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6792,7 +6787,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6822,7 +6817,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6852,7 +6847,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6882,7 +6877,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6912,7 +6907,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6942,7 +6937,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6972,7 +6967,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7002,7 +6997,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7032,7 +7027,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7062,7 +7057,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7092,7 +7087,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7122,7 +7117,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -7152,7 +7147,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -7182,7 +7177,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -7212,7 +7207,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -7242,7 +7237,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7272,7 +7267,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7302,7 +7297,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7332,7 +7327,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7362,7 +7357,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7392,7 +7387,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7422,7 +7417,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7452,7 +7447,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7482,7 +7477,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7512,7 +7507,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7542,7 +7537,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7572,7 +7567,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7602,7 +7597,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7632,7 +7627,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7662,7 +7657,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7692,7 +7687,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7722,7 +7717,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7752,7 +7747,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -7782,7 +7777,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7812,7 +7807,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -7842,7 +7837,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -7872,7 +7867,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -7902,7 +7897,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -7932,7 +7927,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -7962,7 +7957,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -7992,7 +7987,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8022,7 +8017,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8052,7 +8047,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8082,7 +8077,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8112,7 +8107,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8142,7 +8137,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8172,7 +8167,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8202,7 +8197,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8232,7 +8227,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8262,7 +8257,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8292,7 +8287,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8322,7 +8317,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8352,7 +8347,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8382,7 +8377,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8412,7 +8407,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8442,7 +8437,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8472,7 +8467,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8502,7 +8497,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8532,7 +8527,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8562,7 +8557,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8592,7 +8587,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8622,7 +8617,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8652,7 +8647,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8682,7 +8677,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8712,7 +8707,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8742,7 +8737,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8772,7 +8767,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8802,7 +8797,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8832,7 +8827,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8862,7 +8857,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -8892,7 +8887,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -8922,7 +8917,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -8952,7 +8947,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -8982,7 +8977,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9012,7 +9007,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -9042,7 +9037,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -9072,7 +9067,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9102,7 +9097,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9132,7 +9127,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -9162,7 +9157,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -9192,7 +9187,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -9222,7 +9217,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -9252,7 +9247,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -9282,7 +9277,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -9312,7 +9307,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -9342,7 +9337,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -9372,7 +9367,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -9402,7 +9397,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -9432,7 +9427,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -9462,7 +9457,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -9492,7 +9487,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -9522,7 +9517,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -9552,7 +9547,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -9582,7 +9577,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -9612,7 +9607,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -9642,7 +9637,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -9672,7 +9667,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -9702,7 +9697,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -9732,7 +9727,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -9762,7 +9757,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -9792,7 +9787,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -9822,7 +9817,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -9852,7 +9847,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -9882,7 +9877,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -9912,7 +9907,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -9942,7 +9937,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -9972,7 +9967,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10002,7 +9997,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10032,7 +10027,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10062,7 +10057,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10092,7 +10087,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10122,7 +10117,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10152,7 +10147,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10182,7 +10177,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10212,7 +10207,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10242,7 +10237,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10272,7 +10267,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10302,7 +10297,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10332,7 +10327,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10362,7 +10357,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10392,7 +10387,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10422,7 +10417,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10452,7 +10447,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10482,7 +10477,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10512,7 +10507,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -10542,7 +10537,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -10572,7 +10567,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -10602,7 +10597,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -10632,7 +10627,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -10662,7 +10657,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -10692,7 +10687,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10722,7 +10717,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -10752,7 +10747,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -10782,7 +10777,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -10812,7 +10807,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -10842,7 +10837,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -10872,7 +10867,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -10902,7 +10897,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -10932,7 +10927,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -10962,7 +10957,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -10992,7 +10987,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11022,7 +11017,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11052,7 +11047,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11082,7 +11077,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11112,7 +11107,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11142,7 +11137,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11172,7 +11167,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11202,7 +11197,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11232,7 +11227,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11262,7 +11257,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11292,7 +11287,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11322,7 +11317,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11352,7 +11347,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11382,7 +11377,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11412,7 +11407,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11442,7 +11437,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11472,7 +11467,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11502,7 +11497,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11532,7 +11527,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11562,7 +11557,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11592,7 +11587,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11622,7 +11617,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11652,7 +11647,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11682,7 +11677,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11712,7 +11707,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -11742,7 +11737,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -11772,7 +11767,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -11802,7 +11797,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -11832,7 +11827,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -11862,7 +11857,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -11892,7 +11887,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -11922,7 +11917,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -11952,7 +11947,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -11982,7 +11977,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12012,7 +12007,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12042,7 +12037,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12072,7 +12067,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12102,7 +12097,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12132,7 +12127,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12162,7 +12157,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12192,7 +12187,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12222,7 +12217,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12252,7 +12247,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12282,7 +12277,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12312,7 +12307,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12342,7 +12337,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12372,7 +12367,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12402,7 +12397,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12432,7 +12427,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12462,7 +12457,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12492,7 +12487,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12522,7 +12517,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12552,7 +12547,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12582,7 +12577,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12612,7 +12607,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12642,7 +12637,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -12672,7 +12667,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -12702,7 +12697,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -12732,7 +12727,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -12762,7 +12757,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -12792,7 +12787,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -12822,7 +12817,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -12852,7 +12847,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -12882,7 +12877,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -12912,7 +12907,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -12942,7 +12937,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -12972,7 +12967,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -13002,7 +12997,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -13032,7 +13027,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -13062,7 +13057,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13092,7 +13087,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13122,7 +13117,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13152,7 +13147,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13182,7 +13177,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13212,7 +13207,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13242,7 +13237,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13272,7 +13267,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13302,7 +13297,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13332,7 +13327,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13362,7 +13357,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13392,7 +13387,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13422,7 +13417,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13452,7 +13447,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13482,7 +13477,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13512,7 +13507,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13543,7 +13538,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13574,7 +13569,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -13605,7 +13600,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -13636,7 +13631,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -13667,7 +13662,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -13698,7 +13693,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -13729,7 +13724,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -13760,7 +13755,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13791,7 +13786,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -13822,7 +13817,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -13853,7 +13848,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -13884,7 +13879,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -13915,7 +13910,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -13946,7 +13941,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -13977,7 +13972,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -14008,7 +14003,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -14039,7 +14034,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -14070,7 +14065,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -14101,7 +14096,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -14132,7 +14127,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -14163,7 +14158,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -14194,7 +14189,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -14225,7 +14220,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -14256,7 +14251,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -14287,7 +14282,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -14318,7 +14313,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14349,7 +14344,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -14380,7 +14375,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -14411,7 +14406,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14442,7 +14437,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -14473,7 +14468,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -14504,7 +14499,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14535,7 +14530,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14566,7 +14561,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -14597,7 +14592,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -14628,7 +14623,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -14659,7 +14654,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -14690,7 +14685,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -14721,7 +14716,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -14752,7 +14747,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -14783,7 +14778,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14814,7 +14809,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -14845,7 +14840,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -14876,7 +14871,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -14907,7 +14902,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14938,7 +14933,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -14969,7 +14964,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -15000,7 +14995,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -15031,7 +15026,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -15062,7 +15057,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -15093,7 +15088,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -15124,7 +15119,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -15155,7 +15150,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -15186,7 +15181,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -15217,7 +15212,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -15248,7 +15243,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -15279,7 +15274,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -15310,7 +15305,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -15341,7 +15336,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -15372,7 +15367,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -15403,7 +15398,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -15434,7 +15429,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -15465,7 +15460,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -15496,7 +15491,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -15527,7 +15522,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -15558,7 +15553,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -15589,7 +15584,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -15620,7 +15615,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -15651,7 +15646,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -15682,7 +15677,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -15713,7 +15708,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -15744,7 +15739,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -15775,7 +15770,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -15806,7 +15801,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -15837,7 +15832,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -15868,7 +15863,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -15899,7 +15894,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -15930,7 +15925,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -15961,7 +15956,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -15992,7 +15987,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -16023,7 +16018,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -16054,7 +16049,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -16085,7 +16080,7 @@
       <c r="AB503" s="3"/>
       <c r="AC503" s="3"/>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -16116,7 +16111,7 @@
       <c r="AB504" s="3"/>
       <c r="AC504" s="3"/>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -16147,7 +16142,7 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -16178,7 +16173,7 @@
       <c r="AB506" s="3"/>
       <c r="AC506" s="3"/>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -16209,7 +16204,7 @@
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -16240,7 +16235,7 @@
       <c r="AB508" s="3"/>
       <c r="AC508" s="3"/>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -16271,7 +16266,7 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -16302,7 +16297,7 @@
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -16333,7 +16328,7 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -16364,7 +16359,7 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -16395,7 +16390,7 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -16426,7 +16421,7 @@
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
     </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -16457,7 +16452,7 @@
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
     </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -16488,7 +16483,7 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -16519,7 +16514,7 @@
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -16550,7 +16545,7 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -16581,7 +16576,7 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -16612,7 +16607,7 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -16643,7 +16638,7 @@
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
     </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -16674,7 +16669,7 @@
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
     </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -16705,7 +16700,7 @@
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
     </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -16736,7 +16731,7 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -16767,7 +16762,7 @@
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -16798,7 +16793,7 @@
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -16829,7 +16824,7 @@
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -16860,7 +16855,7 @@
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -16891,7 +16886,7 @@
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -16922,7 +16917,7 @@
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -16953,7 +16948,7 @@
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -16984,7 +16979,7 @@
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -17015,7 +17010,7 @@
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -17046,7 +17041,7 @@
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -17077,7 +17072,7 @@
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -17108,7 +17103,7 @@
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -17139,7 +17134,7 @@
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -17170,7 +17165,7 @@
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -17201,7 +17196,7 @@
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -17232,7 +17227,7 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -17263,7 +17258,7 @@
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -17294,7 +17289,7 @@
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -17325,7 +17320,7 @@
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -17356,7 +17351,7 @@
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -17387,7 +17382,7 @@
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -17418,7 +17413,7 @@
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -17449,7 +17444,7 @@
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -17480,7 +17475,7 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -17511,7 +17506,7 @@
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -17542,7 +17537,7 @@
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -17573,7 +17568,7 @@
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -17604,7 +17599,7 @@
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -17635,7 +17630,7 @@
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -17666,7 +17661,7 @@
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -17697,7 +17692,7 @@
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -17728,7 +17723,7 @@
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -17759,7 +17754,7 @@
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -17790,7 +17785,7 @@
       <c r="AB558" s="3"/>
       <c r="AC558" s="3"/>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -17821,7 +17816,7 @@
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -17852,7 +17847,7 @@
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -17883,7 +17878,7 @@
       <c r="AB561" s="3"/>
       <c r="AC561" s="3"/>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -17914,7 +17909,7 @@
       <c r="AB562" s="3"/>
       <c r="AC562" s="3"/>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -17945,7 +17940,7 @@
       <c r="AB563" s="3"/>
       <c r="AC563" s="3"/>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -17976,7 +17971,7 @@
       <c r="AB564" s="3"/>
       <c r="AC564" s="3"/>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -18007,7 +18002,7 @@
       <c r="AB565" s="3"/>
       <c r="AC565" s="3"/>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -18038,7 +18033,7 @@
       <c r="AB566" s="3"/>
       <c r="AC566" s="3"/>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -18069,7 +18064,7 @@
       <c r="AB567" s="3"/>
       <c r="AC567" s="3"/>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -18100,7 +18095,7 @@
       <c r="AB568" s="3"/>
       <c r="AC568" s="3"/>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -18131,7 +18126,7 @@
       <c r="AB569" s="3"/>
       <c r="AC569" s="3"/>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -18162,7 +18157,7 @@
       <c r="AB570" s="3"/>
       <c r="AC570" s="3"/>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -18193,7 +18188,7 @@
       <c r="AB571" s="3"/>
       <c r="AC571" s="3"/>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -18224,7 +18219,7 @@
       <c r="AB572" s="3"/>
       <c r="AC572" s="3"/>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -18255,7 +18250,7 @@
       <c r="AB573" s="3"/>
       <c r="AC573" s="3"/>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -18286,7 +18281,7 @@
       <c r="AB574" s="3"/>
       <c r="AC574" s="3"/>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -18317,7 +18312,7 @@
       <c r="AB575" s="3"/>
       <c r="AC575" s="3"/>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -18348,7 +18343,7 @@
       <c r="AB576" s="3"/>
       <c r="AC576" s="3"/>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -18379,7 +18374,7 @@
       <c r="AB577" s="3"/>
       <c r="AC577" s="3"/>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -18410,7 +18405,7 @@
       <c r="AB578" s="3"/>
       <c r="AC578" s="3"/>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -18441,7 +18436,7 @@
       <c r="AB579" s="3"/>
       <c r="AC579" s="3"/>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -18472,7 +18467,7 @@
       <c r="AB580" s="3"/>
       <c r="AC580" s="3"/>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -18503,7 +18498,7 @@
       <c r="AB581" s="3"/>
       <c r="AC581" s="3"/>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -18534,7 +18529,7 @@
       <c r="AB582" s="3"/>
       <c r="AC582" s="3"/>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -18565,7 +18560,7 @@
       <c r="AB583" s="3"/>
       <c r="AC583" s="3"/>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -18596,7 +18591,7 @@
       <c r="AB584" s="3"/>
       <c r="AC584" s="3"/>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -18627,7 +18622,7 @@
       <c r="AB585" s="3"/>
       <c r="AC585" s="3"/>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -18658,7 +18653,7 @@
       <c r="AB586" s="3"/>
       <c r="AC586" s="3"/>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -18689,7 +18684,7 @@
       <c r="AB587" s="3"/>
       <c r="AC587" s="3"/>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -18720,7 +18715,7 @@
       <c r="AB588" s="3"/>
       <c r="AC588" s="3"/>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -18751,7 +18746,7 @@
       <c r="AB589" s="3"/>
       <c r="AC589" s="3"/>
     </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -18782,7 +18777,7 @@
       <c r="AB590" s="3"/>
       <c r="AC590" s="3"/>
     </row>
-    <row r="591" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -18813,7 +18808,7 @@
       <c r="AB591" s="3"/>
       <c r="AC591" s="3"/>
     </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -18844,7 +18839,7 @@
       <c r="AB592" s="3"/>
       <c r="AC592" s="3"/>
     </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -18875,7 +18870,7 @@
       <c r="AB593" s="3"/>
       <c r="AC593" s="3"/>
     </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -18906,7 +18901,7 @@
       <c r="AB594" s="3"/>
       <c r="AC594" s="3"/>
     </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -18937,7 +18932,7 @@
       <c r="AB595" s="3"/>
       <c r="AC595" s="3"/>
     </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -18968,7 +18963,7 @@
       <c r="AB596" s="3"/>
       <c r="AC596" s="3"/>
     </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -18999,7 +18994,7 @@
       <c r="AB597" s="3"/>
       <c r="AC597" s="3"/>
     </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -19030,7 +19025,7 @@
       <c r="AB598" s="3"/>
       <c r="AC598" s="3"/>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -19061,7 +19056,7 @@
       <c r="AB599" s="3"/>
       <c r="AC599" s="3"/>
     </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -19092,7 +19087,7 @@
       <c r="AB600" s="3"/>
       <c r="AC600" s="3"/>
     </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -19123,7 +19118,7 @@
       <c r="AB601" s="3"/>
       <c r="AC601" s="3"/>
     </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -19154,7 +19149,7 @@
       <c r="AB602" s="3"/>
       <c r="AC602" s="3"/>
     </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -19185,7 +19180,7 @@
       <c r="AB603" s="3"/>
       <c r="AC603" s="3"/>
     </row>
-    <row r="604" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -19216,7 +19211,7 @@
       <c r="AB604" s="3"/>
       <c r="AC604" s="3"/>
     </row>
-    <row r="605" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -19247,7 +19242,7 @@
       <c r="AB605" s="3"/>
       <c r="AC605" s="3"/>
     </row>
-    <row r="606" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -19278,7 +19273,7 @@
       <c r="AB606" s="3"/>
       <c r="AC606" s="3"/>
     </row>
-    <row r="607" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -19309,7 +19304,7 @@
       <c r="AB607" s="3"/>
       <c r="AC607" s="3"/>
     </row>
-    <row r="608" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -19340,7 +19335,7 @@
       <c r="AB608" s="3"/>
       <c r="AC608" s="3"/>
     </row>
-    <row r="609" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -19371,7 +19366,7 @@
       <c r="AB609" s="3"/>
       <c r="AC609" s="3"/>
     </row>
-    <row r="610" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -19402,7 +19397,7 @@
       <c r="AB610" s="3"/>
       <c r="AC610" s="3"/>
     </row>
-    <row r="611" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -19433,7 +19428,7 @@
       <c r="AB611" s="3"/>
       <c r="AC611" s="3"/>
     </row>
-    <row r="612" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -19464,7 +19459,7 @@
       <c r="AB612" s="3"/>
       <c r="AC612" s="3"/>
     </row>
-    <row r="613" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -19495,7 +19490,7 @@
       <c r="AB613" s="3"/>
       <c r="AC613" s="3"/>
     </row>
-    <row r="614" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -19526,7 +19521,7 @@
       <c r="AB614" s="3"/>
       <c r="AC614" s="3"/>
     </row>
-    <row r="615" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -19557,7 +19552,7 @@
       <c r="AB615" s="3"/>
       <c r="AC615" s="3"/>
     </row>
-    <row r="616" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -19588,7 +19583,7 @@
       <c r="AB616" s="3"/>
       <c r="AC616" s="3"/>
     </row>
-    <row r="617" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -19619,7 +19614,7 @@
       <c r="AB617" s="3"/>
       <c r="AC617" s="3"/>
     </row>
-    <row r="618" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -19650,7 +19645,7 @@
       <c r="AB618" s="3"/>
       <c r="AC618" s="3"/>
     </row>
-    <row r="619" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -19681,7 +19676,7 @@
       <c r="AB619" s="3"/>
       <c r="AC619" s="3"/>
     </row>
-    <row r="620" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -19712,7 +19707,7 @@
       <c r="AB620" s="3"/>
       <c r="AC620" s="3"/>
     </row>
-    <row r="621" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -19743,7 +19738,7 @@
       <c r="AB621" s="3"/>
       <c r="AC621" s="3"/>
     </row>
-    <row r="622" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -19774,7 +19769,7 @@
       <c r="AB622" s="3"/>
       <c r="AC622" s="3"/>
     </row>
-    <row r="623" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -19805,7 +19800,7 @@
       <c r="AB623" s="3"/>
       <c r="AC623" s="3"/>
     </row>
-    <row r="624" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -19836,7 +19831,7 @@
       <c r="AB624" s="3"/>
       <c r="AC624" s="3"/>
     </row>
-    <row r="625" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -19867,7 +19862,7 @@
       <c r="AB625" s="3"/>
       <c r="AC625" s="3"/>
     </row>
-    <row r="626" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -19898,7 +19893,7 @@
       <c r="AB626" s="3"/>
       <c r="AC626" s="3"/>
     </row>
-    <row r="627" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -19929,7 +19924,7 @@
       <c r="AB627" s="3"/>
       <c r="AC627" s="3"/>
     </row>
-    <row r="628" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -19960,7 +19955,7 @@
       <c r="AB628" s="3"/>
       <c r="AC628" s="3"/>
     </row>
-    <row r="629" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -19991,7 +19986,7 @@
       <c r="AB629" s="3"/>
       <c r="AC629" s="3"/>
     </row>
-    <row r="630" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -20022,7 +20017,7 @@
       <c r="AB630" s="3"/>
       <c r="AC630" s="3"/>
     </row>
-    <row r="631" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -20053,7 +20048,7 @@
       <c r="AB631" s="3"/>
       <c r="AC631" s="3"/>
     </row>
-    <row r="632" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -20084,7 +20079,7 @@
       <c r="AB632" s="3"/>
       <c r="AC632" s="3"/>
     </row>
-    <row r="633" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -20115,7 +20110,7 @@
       <c r="AB633" s="3"/>
       <c r="AC633" s="3"/>
     </row>
-    <row r="634" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -20146,7 +20141,7 @@
       <c r="AB634" s="3"/>
       <c r="AC634" s="3"/>
     </row>
-    <row r="635" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -20177,7 +20172,7 @@
       <c r="AB635" s="3"/>
       <c r="AC635" s="3"/>
     </row>
-    <row r="636" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -20208,7 +20203,7 @@
       <c r="AB636" s="3"/>
       <c r="AC636" s="3"/>
     </row>
-    <row r="637" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -20239,7 +20234,7 @@
       <c r="AB637" s="3"/>
       <c r="AC637" s="3"/>
     </row>
-    <row r="638" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -20270,7 +20265,7 @@
       <c r="AB638" s="3"/>
       <c r="AC638" s="3"/>
     </row>
-    <row r="639" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -20301,7 +20296,7 @@
       <c r="AB639" s="3"/>
       <c r="AC639" s="3"/>
     </row>
-    <row r="640" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -20332,7 +20327,7 @@
       <c r="AB640" s="3"/>
       <c r="AC640" s="3"/>
     </row>
-    <row r="641" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -20363,7 +20358,7 @@
       <c r="AB641" s="3"/>
       <c r="AC641" s="3"/>
     </row>
-    <row r="642" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -20394,7 +20389,7 @@
       <c r="AB642" s="3"/>
       <c r="AC642" s="3"/>
     </row>
-    <row r="643" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -20425,7 +20420,7 @@
       <c r="AB643" s="3"/>
       <c r="AC643" s="3"/>
     </row>
-    <row r="644" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -20456,7 +20451,7 @@
       <c r="AB644" s="3"/>
       <c r="AC644" s="3"/>
     </row>
-    <row r="645" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -20487,7 +20482,7 @@
       <c r="AB645" s="3"/>
       <c r="AC645" s="3"/>
     </row>
-    <row r="646" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -20518,7 +20513,7 @@
       <c r="AB646" s="3"/>
       <c r="AC646" s="3"/>
     </row>
-    <row r="647" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -20549,7 +20544,7 @@
       <c r="AB647" s="3"/>
       <c r="AC647" s="3"/>
     </row>
-    <row r="648" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -20580,7 +20575,7 @@
       <c r="AB648" s="3"/>
       <c r="AC648" s="3"/>
     </row>
-    <row r="649" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -20611,7 +20606,7 @@
       <c r="AB649" s="3"/>
       <c r="AC649" s="3"/>
     </row>
-    <row r="650" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -20642,7 +20637,7 @@
       <c r="AB650" s="3"/>
       <c r="AC650" s="3"/>
     </row>
-    <row r="651" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -20673,7 +20668,7 @@
       <c r="AB651" s="3"/>
       <c r="AC651" s="3"/>
     </row>
-    <row r="652" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -20704,7 +20699,7 @@
       <c r="AB652" s="3"/>
       <c r="AC652" s="3"/>
     </row>
-    <row r="653" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -20735,7 +20730,7 @@
       <c r="AB653" s="3"/>
       <c r="AC653" s="3"/>
     </row>
-    <row r="654" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -20766,7 +20761,7 @@
       <c r="AB654" s="3"/>
       <c r="AC654" s="3"/>
     </row>
-    <row r="655" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -20797,7 +20792,7 @@
       <c r="AB655" s="3"/>
       <c r="AC655" s="3"/>
     </row>
-    <row r="656" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -20828,7 +20823,7 @@
       <c r="AB656" s="3"/>
       <c r="AC656" s="3"/>
     </row>
-    <row r="657" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -20859,7 +20854,7 @@
       <c r="AB657" s="3"/>
       <c r="AC657" s="3"/>
     </row>
-    <row r="658" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -20890,7 +20885,7 @@
       <c r="AB658" s="3"/>
       <c r="AC658" s="3"/>
     </row>
-    <row r="659" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -20921,7 +20916,7 @@
       <c r="AB659" s="3"/>
       <c r="AC659" s="3"/>
     </row>
-    <row r="660" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -20952,7 +20947,7 @@
       <c r="AB660" s="3"/>
       <c r="AC660" s="3"/>
     </row>
-    <row r="661" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -20983,7 +20978,7 @@
       <c r="AB661" s="3"/>
       <c r="AC661" s="3"/>
     </row>
-    <row r="662" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -21014,7 +21009,7 @@
       <c r="AB662" s="3"/>
       <c r="AC662" s="3"/>
     </row>
-    <row r="663" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -21045,7 +21040,7 @@
       <c r="AB663" s="3"/>
       <c r="AC663" s="3"/>
     </row>
-    <row r="664" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -21076,7 +21071,7 @@
       <c r="AB664" s="3"/>
       <c r="AC664" s="3"/>
     </row>
-    <row r="665" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -21107,7 +21102,7 @@
       <c r="AB665" s="3"/>
       <c r="AC665" s="3"/>
     </row>
-    <row r="666" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -21138,7 +21133,7 @@
       <c r="AB666" s="3"/>
       <c r="AC666" s="3"/>
     </row>
-    <row r="667" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -21169,7 +21164,7 @@
       <c r="AB667" s="3"/>
       <c r="AC667" s="3"/>
     </row>
-    <row r="668" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -21200,7 +21195,7 @@
       <c r="AB668" s="3"/>
       <c r="AC668" s="3"/>
     </row>
-    <row r="669" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -21231,7 +21226,7 @@
       <c r="AB669" s="3"/>
       <c r="AC669" s="3"/>
     </row>
-    <row r="670" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -21262,7 +21257,7 @@
       <c r="AB670" s="3"/>
       <c r="AC670" s="3"/>
     </row>
-    <row r="671" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -21293,7 +21288,7 @@
       <c r="AB671" s="3"/>
       <c r="AC671" s="3"/>
     </row>
-    <row r="672" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -21324,7 +21319,7 @@
       <c r="AB672" s="3"/>
       <c r="AC672" s="3"/>
     </row>
-    <row r="673" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -21355,7 +21350,7 @@
       <c r="AB673" s="3"/>
       <c r="AC673" s="3"/>
     </row>
-    <row r="674" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -21386,7 +21381,7 @@
       <c r="AB674" s="3"/>
       <c r="AC674" s="3"/>
     </row>
-    <row r="675" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -21417,7 +21412,7 @@
       <c r="AB675" s="3"/>
       <c r="AC675" s="3"/>
     </row>
-    <row r="676" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -21448,7 +21443,7 @@
       <c r="AB676" s="3"/>
       <c r="AC676" s="3"/>
     </row>
-    <row r="677" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -21479,7 +21474,7 @@
       <c r="AB677" s="3"/>
       <c r="AC677" s="3"/>
     </row>
-    <row r="678" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -21510,7 +21505,7 @@
       <c r="AB678" s="3"/>
       <c r="AC678" s="3"/>
     </row>
-    <row r="679" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -21541,7 +21536,7 @@
       <c r="AB679" s="3"/>
       <c r="AC679" s="3"/>
     </row>
-    <row r="680" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -21572,7 +21567,7 @@
       <c r="AB680" s="3"/>
       <c r="AC680" s="3"/>
     </row>
-    <row r="681" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -21603,7 +21598,7 @@
       <c r="AB681" s="3"/>
       <c r="AC681" s="3"/>
     </row>
-    <row r="682" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -21634,7 +21629,7 @@
       <c r="AB682" s="3"/>
       <c r="AC682" s="3"/>
     </row>
-    <row r="683" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -21665,7 +21660,7 @@
       <c r="AB683" s="3"/>
       <c r="AC683" s="3"/>
     </row>
-    <row r="684" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -21696,7 +21691,7 @@
       <c r="AB684" s="3"/>
       <c r="AC684" s="3"/>
     </row>
-    <row r="685" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -21727,7 +21722,7 @@
       <c r="AB685" s="3"/>
       <c r="AC685" s="3"/>
     </row>
-    <row r="686" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -21758,7 +21753,7 @@
       <c r="AB686" s="3"/>
       <c r="AC686" s="3"/>
     </row>
-    <row r="687" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -21789,7 +21784,7 @@
       <c r="AB687" s="3"/>
       <c r="AC687" s="3"/>
     </row>
-    <row r="688" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -21820,7 +21815,7 @@
       <c r="AB688" s="3"/>
       <c r="AC688" s="3"/>
     </row>
-    <row r="689" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -21851,7 +21846,7 @@
       <c r="AB689" s="3"/>
       <c r="AC689" s="3"/>
     </row>
-    <row r="690" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -21882,7 +21877,7 @@
       <c r="AB690" s="3"/>
       <c r="AC690" s="3"/>
     </row>
-    <row r="691" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -21913,7 +21908,7 @@
       <c r="AB691" s="3"/>
       <c r="AC691" s="3"/>
     </row>
-    <row r="692" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -21944,7 +21939,7 @@
       <c r="AB692" s="3"/>
       <c r="AC692" s="3"/>
     </row>
-    <row r="693" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -21975,7 +21970,7 @@
       <c r="AB693" s="3"/>
       <c r="AC693" s="3"/>
     </row>
-    <row r="694" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -22006,7 +22001,7 @@
       <c r="AB694" s="3"/>
       <c r="AC694" s="3"/>
     </row>
-    <row r="695" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -22037,7 +22032,7 @@
       <c r="AB695" s="3"/>
       <c r="AC695" s="3"/>
     </row>
-    <row r="696" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -22068,7 +22063,7 @@
       <c r="AB696" s="3"/>
       <c r="AC696" s="3"/>
     </row>
-    <row r="697" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -22099,7 +22094,7 @@
       <c r="AB697" s="3"/>
       <c r="AC697" s="3"/>
     </row>
-    <row r="698" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -22130,7 +22125,7 @@
       <c r="AB698" s="3"/>
       <c r="AC698" s="3"/>
     </row>
-    <row r="699" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -22161,7 +22156,7 @@
       <c r="AB699" s="3"/>
       <c r="AC699" s="3"/>
     </row>
-    <row r="700" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -22192,7 +22187,7 @@
       <c r="AB700" s="3"/>
       <c r="AC700" s="3"/>
     </row>
-    <row r="701" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -22223,7 +22218,7 @@
       <c r="AB701" s="3"/>
       <c r="AC701" s="3"/>
     </row>
-    <row r="702" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -22254,7 +22249,7 @@
       <c r="AB702" s="3"/>
       <c r="AC702" s="3"/>
     </row>
-    <row r="703" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -22285,7 +22280,7 @@
       <c r="AB703" s="3"/>
       <c r="AC703" s="3"/>
     </row>
-    <row r="704" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -22316,7 +22311,7 @@
       <c r="AB704" s="3"/>
       <c r="AC704" s="3"/>
     </row>
-    <row r="705" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -22347,7 +22342,7 @@
       <c r="AB705" s="3"/>
       <c r="AC705" s="3"/>
     </row>
-    <row r="706" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -22378,7 +22373,7 @@
       <c r="AB706" s="3"/>
       <c r="AC706" s="3"/>
     </row>
-    <row r="707" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -22409,7 +22404,7 @@
       <c r="AB707" s="3"/>
       <c r="AC707" s="3"/>
     </row>
-    <row r="708" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -22440,7 +22435,7 @@
       <c r="AB708" s="3"/>
       <c r="AC708" s="3"/>
     </row>
-    <row r="709" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -22471,7 +22466,7 @@
       <c r="AB709" s="3"/>
       <c r="AC709" s="3"/>
     </row>
-    <row r="710" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -22502,7 +22497,7 @@
       <c r="AB710" s="3"/>
       <c r="AC710" s="3"/>
     </row>
-    <row r="711" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -22533,7 +22528,7 @@
       <c r="AB711" s="3"/>
       <c r="AC711" s="3"/>
     </row>
-    <row r="712" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -22564,7 +22559,7 @@
       <c r="AB712" s="3"/>
       <c r="AC712" s="3"/>
     </row>
-    <row r="713" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -22595,7 +22590,7 @@
       <c r="AB713" s="3"/>
       <c r="AC713" s="3"/>
     </row>
-    <row r="714" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -22626,7 +22621,7 @@
       <c r="AB714" s="3"/>
       <c r="AC714" s="3"/>
     </row>
-    <row r="715" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -22657,7 +22652,7 @@
       <c r="AB715" s="3"/>
       <c r="AC715" s="3"/>
     </row>
-    <row r="716" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -22688,7 +22683,7 @@
       <c r="AB716" s="3"/>
       <c r="AC716" s="3"/>
     </row>
-    <row r="717" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -22719,7 +22714,7 @@
       <c r="AB717" s="3"/>
       <c r="AC717" s="3"/>
     </row>
-    <row r="718" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -22750,7 +22745,7 @@
       <c r="AB718" s="3"/>
       <c r="AC718" s="3"/>
     </row>
-    <row r="719" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -22781,7 +22776,7 @@
       <c r="AB719" s="3"/>
       <c r="AC719" s="3"/>
     </row>
-    <row r="720" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -22812,7 +22807,7 @@
       <c r="AB720" s="3"/>
       <c r="AC720" s="3"/>
     </row>
-    <row r="721" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -22843,7 +22838,7 @@
       <c r="AB721" s="3"/>
       <c r="AC721" s="3"/>
     </row>
-    <row r="722" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -22874,7 +22869,7 @@
       <c r="AB722" s="3"/>
       <c r="AC722" s="3"/>
     </row>
-    <row r="723" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -22905,7 +22900,7 @@
       <c r="AB723" s="3"/>
       <c r="AC723" s="3"/>
     </row>
-    <row r="724" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -22936,7 +22931,7 @@
       <c r="AB724" s="3"/>
       <c r="AC724" s="3"/>
     </row>
-    <row r="725" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -22967,7 +22962,7 @@
       <c r="AB725" s="3"/>
       <c r="AC725" s="3"/>
     </row>
-    <row r="726" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -22998,7 +22993,7 @@
       <c r="AB726" s="3"/>
       <c r="AC726" s="3"/>
     </row>
-    <row r="727" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -23029,7 +23024,7 @@
       <c r="AB727" s="3"/>
       <c r="AC727" s="3"/>
     </row>
-    <row r="728" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -23060,7 +23055,7 @@
       <c r="AB728" s="3"/>
       <c r="AC728" s="3"/>
     </row>
-    <row r="729" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -23091,7 +23086,7 @@
       <c r="AB729" s="3"/>
       <c r="AC729" s="3"/>
     </row>
-    <row r="730" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -23122,7 +23117,7 @@
       <c r="AB730" s="3"/>
       <c r="AC730" s="3"/>
     </row>
-    <row r="731" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -23153,7 +23148,7 @@
       <c r="AB731" s="3"/>
       <c r="AC731" s="3"/>
     </row>
-    <row r="732" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -23184,7 +23179,7 @@
       <c r="AB732" s="3"/>
       <c r="AC732" s="3"/>
     </row>
-    <row r="733" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -23215,7 +23210,7 @@
       <c r="AB733" s="3"/>
       <c r="AC733" s="3"/>
     </row>
-    <row r="734" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -23246,7 +23241,7 @@
       <c r="AB734" s="3"/>
       <c r="AC734" s="3"/>
     </row>
-    <row r="735" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -23277,7 +23272,7 @@
       <c r="AB735" s="3"/>
       <c r="AC735" s="3"/>
     </row>
-    <row r="736" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -23308,7 +23303,7 @@
       <c r="AB736" s="3"/>
       <c r="AC736" s="3"/>
     </row>
-    <row r="737" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -23339,7 +23334,7 @@
       <c r="AB737" s="3"/>
       <c r="AC737" s="3"/>
     </row>
-    <row r="738" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -23370,7 +23365,7 @@
       <c r="AB738" s="3"/>
       <c r="AC738" s="3"/>
     </row>
-    <row r="739" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -23401,7 +23396,7 @@
       <c r="AB739" s="3"/>
       <c r="AC739" s="3"/>
     </row>
-    <row r="740" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -23432,7 +23427,7 @@
       <c r="AB740" s="3"/>
       <c r="AC740" s="3"/>
     </row>
-    <row r="741" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -23463,7 +23458,7 @@
       <c r="AB741" s="3"/>
       <c r="AC741" s="3"/>
     </row>
-    <row r="742" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -23494,7 +23489,7 @@
       <c r="AB742" s="3"/>
       <c r="AC742" s="3"/>
     </row>
-    <row r="743" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -23525,7 +23520,7 @@
       <c r="AB743" s="3"/>
       <c r="AC743" s="3"/>
     </row>
-    <row r="744" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -23556,7 +23551,7 @@
       <c r="AB744" s="3"/>
       <c r="AC744" s="3"/>
     </row>
-    <row r="745" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -23587,7 +23582,7 @@
       <c r="AB745" s="3"/>
       <c r="AC745" s="3"/>
     </row>
-    <row r="746" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -23618,7 +23613,7 @@
       <c r="AB746" s="3"/>
       <c r="AC746" s="3"/>
     </row>
-    <row r="747" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -23649,7 +23644,7 @@
       <c r="AB747" s="3"/>
       <c r="AC747" s="3"/>
     </row>
-    <row r="748" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -23680,7 +23675,7 @@
       <c r="AB748" s="3"/>
       <c r="AC748" s="3"/>
     </row>
-    <row r="749" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -23711,7 +23706,7 @@
       <c r="AB749" s="3"/>
       <c r="AC749" s="3"/>
     </row>
-    <row r="750" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -23742,7 +23737,7 @@
       <c r="AB750" s="3"/>
       <c r="AC750" s="3"/>
     </row>
-    <row r="751" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -23773,7 +23768,7 @@
       <c r="AB751" s="3"/>
       <c r="AC751" s="3"/>
     </row>
-    <row r="752" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -23804,7 +23799,7 @@
       <c r="AB752" s="3"/>
       <c r="AC752" s="3"/>
     </row>
-    <row r="753" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -23835,7 +23830,7 @@
       <c r="AB753" s="3"/>
       <c r="AC753" s="3"/>
     </row>
-    <row r="754" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -23866,7 +23861,7 @@
       <c r="AB754" s="3"/>
       <c r="AC754" s="3"/>
     </row>
-    <row r="755" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -23897,7 +23892,7 @@
       <c r="AB755" s="3"/>
       <c r="AC755" s="3"/>
     </row>
-    <row r="756" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -23928,7 +23923,7 @@
       <c r="AB756" s="3"/>
       <c r="AC756" s="3"/>
     </row>
-    <row r="757" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -23959,7 +23954,7 @@
       <c r="AB757" s="3"/>
       <c r="AC757" s="3"/>
     </row>
-    <row r="758" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -23990,7 +23985,7 @@
       <c r="AB758" s="3"/>
       <c r="AC758" s="3"/>
     </row>
-    <row r="759" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -24021,7 +24016,7 @@
       <c r="AB759" s="3"/>
       <c r="AC759" s="3"/>
     </row>
-    <row r="760" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -24052,7 +24047,7 @@
       <c r="AB760" s="3"/>
       <c r="AC760" s="3"/>
     </row>
-    <row r="761" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -24083,7 +24078,7 @@
       <c r="AB761" s="3"/>
       <c r="AC761" s="3"/>
     </row>
-    <row r="762" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -24114,7 +24109,7 @@
       <c r="AB762" s="3"/>
       <c r="AC762" s="3"/>
     </row>
-    <row r="763" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -24145,7 +24140,7 @@
       <c r="AB763" s="3"/>
       <c r="AC763" s="3"/>
     </row>
-    <row r="764" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -24176,7 +24171,7 @@
       <c r="AB764" s="3"/>
       <c r="AC764" s="3"/>
     </row>
-    <row r="765" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -24207,7 +24202,7 @@
       <c r="AB765" s="3"/>
       <c r="AC765" s="3"/>
     </row>
-    <row r="766" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -24238,7 +24233,7 @@
       <c r="AB766" s="3"/>
       <c r="AC766" s="3"/>
     </row>
-    <row r="767" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -24269,7 +24264,7 @@
       <c r="AB767" s="3"/>
       <c r="AC767" s="3"/>
     </row>
-    <row r="768" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -24300,7 +24295,7 @@
       <c r="AB768" s="3"/>
       <c r="AC768" s="3"/>
     </row>
-    <row r="769" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -24331,7 +24326,7 @@
       <c r="AB769" s="3"/>
       <c r="AC769" s="3"/>
     </row>
-    <row r="770" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -24362,7 +24357,7 @@
       <c r="AB770" s="3"/>
       <c r="AC770" s="3"/>
     </row>
-    <row r="771" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -24393,7 +24388,7 @@
       <c r="AB771" s="3"/>
       <c r="AC771" s="3"/>
     </row>
-    <row r="772" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -24424,7 +24419,7 @@
       <c r="AB772" s="3"/>
       <c r="AC772" s="3"/>
     </row>
-    <row r="773" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -24455,7 +24450,7 @@
       <c r="AB773" s="3"/>
       <c r="AC773" s="3"/>
     </row>
-    <row r="774" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -24486,7 +24481,7 @@
       <c r="AB774" s="3"/>
       <c r="AC774" s="3"/>
     </row>
-    <row r="775" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -24517,7 +24512,7 @@
       <c r="AB775" s="3"/>
       <c r="AC775" s="3"/>
     </row>
-    <row r="776" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -24548,7 +24543,7 @@
       <c r="AB776" s="3"/>
       <c r="AC776" s="3"/>
     </row>
-    <row r="777" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -24579,7 +24574,7 @@
       <c r="AB777" s="3"/>
       <c r="AC777" s="3"/>
     </row>
-    <row r="778" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -24610,7 +24605,7 @@
       <c r="AB778" s="3"/>
       <c r="AC778" s="3"/>
     </row>
-    <row r="779" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -24641,7 +24636,7 @@
       <c r="AB779" s="3"/>
       <c r="AC779" s="3"/>
     </row>
-    <row r="780" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -24672,7 +24667,7 @@
       <c r="AB780" s="3"/>
       <c r="AC780" s="3"/>
     </row>
-    <row r="781" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -24703,7 +24698,7 @@
       <c r="AB781" s="3"/>
       <c r="AC781" s="3"/>
     </row>
-    <row r="782" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -24734,7 +24729,7 @@
       <c r="AB782" s="3"/>
       <c r="AC782" s="3"/>
     </row>
-    <row r="783" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -24765,7 +24760,7 @@
       <c r="AB783" s="3"/>
       <c r="AC783" s="3"/>
     </row>
-    <row r="784" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -24796,7 +24791,7 @@
       <c r="AB784" s="3"/>
       <c r="AC784" s="3"/>
     </row>
-    <row r="785" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -24827,7 +24822,7 @@
       <c r="AB785" s="3"/>
       <c r="AC785" s="3"/>
     </row>
-    <row r="786" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -24858,7 +24853,7 @@
       <c r="AB786" s="3"/>
       <c r="AC786" s="3"/>
     </row>
-    <row r="787" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -24889,7 +24884,7 @@
       <c r="AB787" s="3"/>
       <c r="AC787" s="3"/>
     </row>
-    <row r="788" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -24920,7 +24915,7 @@
       <c r="AB788" s="3"/>
       <c r="AC788" s="3"/>
     </row>
-    <row r="789" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -24951,7 +24946,7 @@
       <c r="AB789" s="3"/>
       <c r="AC789" s="3"/>
     </row>
-    <row r="790" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -24982,7 +24977,7 @@
       <c r="AB790" s="3"/>
       <c r="AC790" s="3"/>
     </row>
-    <row r="791" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -25013,7 +25008,7 @@
       <c r="AB791" s="3"/>
       <c r="AC791" s="3"/>
     </row>
-    <row r="792" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -25044,7 +25039,7 @@
       <c r="AB792" s="3"/>
       <c r="AC792" s="3"/>
     </row>
-    <row r="793" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -25075,7 +25070,7 @@
       <c r="AB793" s="3"/>
       <c r="AC793" s="3"/>
     </row>
-    <row r="794" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -25106,7 +25101,7 @@
       <c r="AB794" s="3"/>
       <c r="AC794" s="3"/>
     </row>
-    <row r="795" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -25137,7 +25132,7 @@
       <c r="AB795" s="3"/>
       <c r="AC795" s="3"/>
     </row>
-    <row r="796" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -25168,7 +25163,7 @@
       <c r="AB796" s="3"/>
       <c r="AC796" s="3"/>
     </row>
-    <row r="797" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -25199,7 +25194,7 @@
       <c r="AB797" s="3"/>
       <c r="AC797" s="3"/>
     </row>
-    <row r="798" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -25230,7 +25225,7 @@
       <c r="AB798" s="3"/>
       <c r="AC798" s="3"/>
     </row>
-    <row r="799" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -25261,7 +25256,7 @@
       <c r="AB799" s="3"/>
       <c r="AC799" s="3"/>
     </row>
-    <row r="800" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -25292,7 +25287,7 @@
       <c r="AB800" s="3"/>
       <c r="AC800" s="3"/>
     </row>
-    <row r="801" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -25323,7 +25318,7 @@
       <c r="AB801" s="3"/>
       <c r="AC801" s="3"/>
     </row>
-    <row r="802" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -25354,7 +25349,7 @@
       <c r="AB802" s="3"/>
       <c r="AC802" s="3"/>
     </row>
-    <row r="803" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -25385,7 +25380,7 @@
       <c r="AB803" s="3"/>
       <c r="AC803" s="3"/>
     </row>
-    <row r="804" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -25416,7 +25411,7 @@
       <c r="AB804" s="3"/>
       <c r="AC804" s="3"/>
     </row>
-    <row r="805" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -25447,7 +25442,7 @@
       <c r="AB805" s="3"/>
       <c r="AC805" s="3"/>
     </row>
-    <row r="806" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -25478,7 +25473,7 @@
       <c r="AB806" s="3"/>
       <c r="AC806" s="3"/>
     </row>
-    <row r="807" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -25509,7 +25504,7 @@
       <c r="AB807" s="3"/>
       <c r="AC807" s="3"/>
     </row>
-    <row r="808" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -25540,7 +25535,7 @@
       <c r="AB808" s="3"/>
       <c r="AC808" s="3"/>
     </row>
-    <row r="809" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -25571,7 +25566,7 @@
       <c r="AB809" s="3"/>
       <c r="AC809" s="3"/>
     </row>
-    <row r="810" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -25602,7 +25597,7 @@
       <c r="AB810" s="3"/>
       <c r="AC810" s="3"/>
     </row>
-    <row r="811" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -25633,7 +25628,7 @@
       <c r="AB811" s="3"/>
       <c r="AC811" s="3"/>
     </row>
-    <row r="812" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -25664,7 +25659,7 @@
       <c r="AB812" s="3"/>
       <c r="AC812" s="3"/>
     </row>
-    <row r="813" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -25695,7 +25690,7 @@
       <c r="AB813" s="3"/>
       <c r="AC813" s="3"/>
     </row>
-    <row r="814" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -25726,7 +25721,7 @@
       <c r="AB814" s="3"/>
       <c r="AC814" s="3"/>
     </row>
-    <row r="815" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -25757,7 +25752,7 @@
       <c r="AB815" s="3"/>
       <c r="AC815" s="3"/>
     </row>
-    <row r="816" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -25788,7 +25783,7 @@
       <c r="AB816" s="3"/>
       <c r="AC816" s="3"/>
     </row>
-    <row r="817" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -25819,7 +25814,7 @@
       <c r="AB817" s="3"/>
       <c r="AC817" s="3"/>
     </row>
-    <row r="818" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -25850,7 +25845,7 @@
       <c r="AB818" s="3"/>
       <c r="AC818" s="3"/>
     </row>
-    <row r="819" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -25881,7 +25876,7 @@
       <c r="AB819" s="3"/>
       <c r="AC819" s="3"/>
     </row>
-    <row r="820" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -25912,7 +25907,7 @@
       <c r="AB820" s="3"/>
       <c r="AC820" s="3"/>
     </row>
-    <row r="821" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -25943,7 +25938,7 @@
       <c r="AB821" s="3"/>
       <c r="AC821" s="3"/>
     </row>
-    <row r="822" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -25974,7 +25969,7 @@
       <c r="AB822" s="3"/>
       <c r="AC822" s="3"/>
     </row>
-    <row r="823" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -26005,7 +26000,7 @@
       <c r="AB823" s="3"/>
       <c r="AC823" s="3"/>
     </row>
-    <row r="824" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -26036,7 +26031,7 @@
       <c r="AB824" s="3"/>
       <c r="AC824" s="3"/>
     </row>
-    <row r="825" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -26067,7 +26062,7 @@
       <c r="AB825" s="3"/>
       <c r="AC825" s="3"/>
     </row>
-    <row r="826" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -26098,7 +26093,7 @@
       <c r="AB826" s="3"/>
       <c r="AC826" s="3"/>
     </row>
-    <row r="827" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -26129,7 +26124,7 @@
       <c r="AB827" s="3"/>
       <c r="AC827" s="3"/>
     </row>
-    <row r="828" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -26160,7 +26155,7 @@
       <c r="AB828" s="3"/>
       <c r="AC828" s="3"/>
     </row>
-    <row r="829" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -26191,7 +26186,7 @@
       <c r="AB829" s="3"/>
       <c r="AC829" s="3"/>
     </row>
-    <row r="830" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -26222,7 +26217,7 @@
       <c r="AB830" s="3"/>
       <c r="AC830" s="3"/>
     </row>
-    <row r="831" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -26253,7 +26248,7 @@
       <c r="AB831" s="3"/>
       <c r="AC831" s="3"/>
     </row>
-    <row r="832" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -26284,7 +26279,7 @@
       <c r="AB832" s="3"/>
       <c r="AC832" s="3"/>
     </row>
-    <row r="833" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -26315,7 +26310,7 @@
       <c r="AB833" s="3"/>
       <c r="AC833" s="3"/>
     </row>
-    <row r="834" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -26346,7 +26341,7 @@
       <c r="AB834" s="3"/>
       <c r="AC834" s="3"/>
     </row>
-    <row r="835" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -26377,7 +26372,7 @@
       <c r="AB835" s="3"/>
       <c r="AC835" s="3"/>
     </row>
-    <row r="836" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -26408,7 +26403,7 @@
       <c r="AB836" s="3"/>
       <c r="AC836" s="3"/>
     </row>
-    <row r="837" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -26439,7 +26434,7 @@
       <c r="AB837" s="3"/>
       <c r="AC837" s="3"/>
     </row>
-    <row r="838" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -26470,7 +26465,7 @@
       <c r="AB838" s="3"/>
       <c r="AC838" s="3"/>
     </row>
-    <row r="839" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -26501,7 +26496,7 @@
       <c r="AB839" s="3"/>
       <c r="AC839" s="3"/>
     </row>
-    <row r="840" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -26532,7 +26527,7 @@
       <c r="AB840" s="3"/>
       <c r="AC840" s="3"/>
     </row>
-    <row r="841" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -26563,7 +26558,7 @@
       <c r="AB841" s="3"/>
       <c r="AC841" s="3"/>
     </row>
-    <row r="842" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -26594,7 +26589,7 @@
       <c r="AB842" s="3"/>
       <c r="AC842" s="3"/>
     </row>
-    <row r="843" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -26625,7 +26620,7 @@
       <c r="AB843" s="3"/>
       <c r="AC843" s="3"/>
     </row>
-    <row r="844" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -26656,7 +26651,7 @@
       <c r="AB844" s="3"/>
       <c r="AC844" s="3"/>
     </row>
-    <row r="845" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -26687,7 +26682,7 @@
       <c r="AB845" s="3"/>
       <c r="AC845" s="3"/>
     </row>
-    <row r="846" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -26718,7 +26713,7 @@
       <c r="AB846" s="3"/>
       <c r="AC846" s="3"/>
     </row>
-    <row r="847" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -26749,7 +26744,7 @@
       <c r="AB847" s="3"/>
       <c r="AC847" s="3"/>
     </row>
-    <row r="848" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -26780,7 +26775,7 @@
       <c r="AB848" s="3"/>
       <c r="AC848" s="3"/>
     </row>
-    <row r="849" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -26811,7 +26806,7 @@
       <c r="AB849" s="3"/>
       <c r="AC849" s="3"/>
     </row>
-    <row r="850" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -26842,7 +26837,7 @@
       <c r="AB850" s="3"/>
       <c r="AC850" s="3"/>
     </row>
-    <row r="851" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -26873,7 +26868,7 @@
       <c r="AB851" s="3"/>
       <c r="AC851" s="3"/>
     </row>
-    <row r="852" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -26904,7 +26899,7 @@
       <c r="AB852" s="3"/>
       <c r="AC852" s="3"/>
     </row>
-    <row r="853" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -26935,7 +26930,7 @@
       <c r="AB853" s="3"/>
       <c r="AC853" s="3"/>
     </row>
-    <row r="854" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -26966,7 +26961,7 @@
       <c r="AB854" s="3"/>
       <c r="AC854" s="3"/>
     </row>
-    <row r="855" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -26997,7 +26992,7 @@
       <c r="AB855" s="3"/>
       <c r="AC855" s="3"/>
     </row>
-    <row r="856" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -27028,7 +27023,7 @@
       <c r="AB856" s="3"/>
       <c r="AC856" s="3"/>
     </row>
-    <row r="857" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -27059,7 +27054,7 @@
       <c r="AB857" s="3"/>
       <c r="AC857" s="3"/>
     </row>
-    <row r="858" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -27090,7 +27085,7 @@
       <c r="AB858" s="3"/>
       <c r="AC858" s="3"/>
     </row>
-    <row r="859" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -27121,7 +27116,7 @@
       <c r="AB859" s="3"/>
       <c r="AC859" s="3"/>
     </row>
-    <row r="860" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -27152,7 +27147,7 @@
       <c r="AB860" s="3"/>
       <c r="AC860" s="3"/>
     </row>
-    <row r="861" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -27183,7 +27178,7 @@
       <c r="AB861" s="3"/>
       <c r="AC861" s="3"/>
     </row>
-    <row r="862" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -27214,7 +27209,7 @@
       <c r="AB862" s="3"/>
       <c r="AC862" s="3"/>
     </row>
-    <row r="863" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -27245,7 +27240,7 @@
       <c r="AB863" s="3"/>
       <c r="AC863" s="3"/>
     </row>
-    <row r="864" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -27276,7 +27271,7 @@
       <c r="AB864" s="3"/>
       <c r="AC864" s="3"/>
     </row>
-    <row r="865" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -27307,7 +27302,7 @@
       <c r="AB865" s="3"/>
       <c r="AC865" s="3"/>
     </row>
-    <row r="866" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -27338,7 +27333,7 @@
       <c r="AB866" s="3"/>
       <c r="AC866" s="3"/>
     </row>
-    <row r="867" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -27369,7 +27364,7 @@
       <c r="AB867" s="3"/>
       <c r="AC867" s="3"/>
     </row>
-    <row r="868" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -27400,7 +27395,7 @@
       <c r="AB868" s="3"/>
       <c r="AC868" s="3"/>
     </row>
-    <row r="869" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -27431,7 +27426,7 @@
       <c r="AB869" s="3"/>
       <c r="AC869" s="3"/>
     </row>
-    <row r="870" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -27462,7 +27457,7 @@
       <c r="AB870" s="3"/>
       <c r="AC870" s="3"/>
     </row>
-    <row r="871" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -27493,7 +27488,7 @@
       <c r="AB871" s="3"/>
       <c r="AC871" s="3"/>
     </row>
-    <row r="872" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -27524,7 +27519,7 @@
       <c r="AB872" s="3"/>
       <c r="AC872" s="3"/>
     </row>
-    <row r="873" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -27555,7 +27550,7 @@
       <c r="AB873" s="3"/>
       <c r="AC873" s="3"/>
     </row>
-    <row r="874" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -27586,7 +27581,7 @@
       <c r="AB874" s="3"/>
       <c r="AC874" s="3"/>
     </row>
-    <row r="875" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -27617,7 +27612,7 @@
       <c r="AB875" s="3"/>
       <c r="AC875" s="3"/>
     </row>
-    <row r="876" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -27648,7 +27643,7 @@
       <c r="AB876" s="3"/>
       <c r="AC876" s="3"/>
     </row>
-    <row r="877" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -27679,7 +27674,7 @@
       <c r="AB877" s="3"/>
       <c r="AC877" s="3"/>
     </row>
-    <row r="878" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -27710,7 +27705,7 @@
       <c r="AB878" s="3"/>
       <c r="AC878" s="3"/>
     </row>
-    <row r="879" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -27741,7 +27736,7 @@
       <c r="AB879" s="3"/>
       <c r="AC879" s="3"/>
     </row>
-    <row r="880" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -27772,7 +27767,7 @@
       <c r="AB880" s="3"/>
       <c r="AC880" s="3"/>
     </row>
-    <row r="881" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -27803,7 +27798,7 @@
       <c r="AB881" s="3"/>
       <c r="AC881" s="3"/>
     </row>
-    <row r="882" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -27834,7 +27829,7 @@
       <c r="AB882" s="3"/>
       <c r="AC882" s="3"/>
     </row>
-    <row r="883" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -27865,7 +27860,7 @@
       <c r="AB883" s="3"/>
       <c r="AC883" s="3"/>
     </row>
-    <row r="884" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -27896,7 +27891,7 @@
       <c r="AB884" s="3"/>
       <c r="AC884" s="3"/>
     </row>
-    <row r="885" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -27927,7 +27922,7 @@
       <c r="AB885" s="3"/>
       <c r="AC885" s="3"/>
     </row>
-    <row r="886" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -27958,7 +27953,7 @@
       <c r="AB886" s="3"/>
       <c r="AC886" s="3"/>
     </row>
-    <row r="887" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -27989,7 +27984,7 @@
       <c r="AB887" s="3"/>
       <c r="AC887" s="3"/>
     </row>
-    <row r="888" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -28020,7 +28015,7 @@
       <c r="AB888" s="3"/>
       <c r="AC888" s="3"/>
     </row>
-    <row r="889" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -28051,7 +28046,7 @@
       <c r="AB889" s="3"/>
       <c r="AC889" s="3"/>
     </row>
-    <row r="890" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -28082,7 +28077,7 @@
       <c r="AB890" s="3"/>
       <c r="AC890" s="3"/>
     </row>
-    <row r="891" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -28113,7 +28108,7 @@
       <c r="AB891" s="3"/>
       <c r="AC891" s="3"/>
     </row>
-    <row r="892" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -28144,7 +28139,7 @@
       <c r="AB892" s="3"/>
       <c r="AC892" s="3"/>
     </row>
-    <row r="893" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -28175,7 +28170,7 @@
       <c r="AB893" s="3"/>
       <c r="AC893" s="3"/>
     </row>
-    <row r="894" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -28206,7 +28201,7 @@
       <c r="AB894" s="3"/>
       <c r="AC894" s="3"/>
     </row>
-    <row r="895" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -28237,7 +28232,7 @@
       <c r="AB895" s="3"/>
       <c r="AC895" s="3"/>
     </row>
-    <row r="896" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -28268,7 +28263,7 @@
       <c r="AB896" s="3"/>
       <c r="AC896" s="3"/>
     </row>
-    <row r="897" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -28299,7 +28294,7 @@
       <c r="AB897" s="3"/>
       <c r="AC897" s="3"/>
     </row>
-    <row r="898" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -28330,7 +28325,7 @@
       <c r="AB898" s="3"/>
       <c r="AC898" s="3"/>
     </row>
-    <row r="899" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -28361,7 +28356,7 @@
       <c r="AB899" s="3"/>
       <c r="AC899" s="3"/>
     </row>
-    <row r="900" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -28392,7 +28387,7 @@
       <c r="AB900" s="3"/>
       <c r="AC900" s="3"/>
     </row>
-    <row r="901" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -28423,7 +28418,7 @@
       <c r="AB901" s="3"/>
       <c r="AC901" s="3"/>
     </row>
-    <row r="902" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -28454,7 +28449,7 @@
       <c r="AB902" s="3"/>
       <c r="AC902" s="3"/>
     </row>
-    <row r="903" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -28485,7 +28480,7 @@
       <c r="AB903" s="3"/>
       <c r="AC903" s="3"/>
     </row>
-    <row r="904" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -28516,7 +28511,7 @@
       <c r="AB904" s="3"/>
       <c r="AC904" s="3"/>
     </row>
-    <row r="905" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -28547,7 +28542,7 @@
       <c r="AB905" s="3"/>
       <c r="AC905" s="3"/>
     </row>
-    <row r="906" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -28578,7 +28573,7 @@
       <c r="AB906" s="3"/>
       <c r="AC906" s="3"/>
     </row>
-    <row r="907" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -28609,7 +28604,7 @@
       <c r="AB907" s="3"/>
       <c r="AC907" s="3"/>
     </row>
-    <row r="908" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -28640,7 +28635,7 @@
       <c r="AB908" s="3"/>
       <c r="AC908" s="3"/>
     </row>
-    <row r="909" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -28671,7 +28666,7 @@
       <c r="AB909" s="3"/>
       <c r="AC909" s="3"/>
     </row>
-    <row r="910" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -28702,7 +28697,7 @@
       <c r="AB910" s="3"/>
       <c r="AC910" s="3"/>
     </row>
-    <row r="911" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -28733,7 +28728,7 @@
       <c r="AB911" s="3"/>
       <c r="AC911" s="3"/>
     </row>
-    <row r="912" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -28764,7 +28759,7 @@
       <c r="AB912" s="3"/>
       <c r="AC912" s="3"/>
     </row>
-    <row r="913" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -28795,7 +28790,7 @@
       <c r="AB913" s="3"/>
       <c r="AC913" s="3"/>
     </row>
-    <row r="914" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -28826,7 +28821,7 @@
       <c r="AB914" s="3"/>
       <c r="AC914" s="3"/>
     </row>
-    <row r="915" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -28857,7 +28852,7 @@
       <c r="AB915" s="3"/>
       <c r="AC915" s="3"/>
     </row>
-    <row r="916" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -28888,7 +28883,7 @@
       <c r="AB916" s="3"/>
       <c r="AC916" s="3"/>
     </row>
-    <row r="917" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -28919,7 +28914,7 @@
       <c r="AB917" s="3"/>
       <c r="AC917" s="3"/>
     </row>
-    <row r="918" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -28950,7 +28945,7 @@
       <c r="AB918" s="3"/>
       <c r="AC918" s="3"/>
     </row>
-    <row r="919" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -28981,7 +28976,7 @@
       <c r="AB919" s="3"/>
       <c r="AC919" s="3"/>
     </row>
-    <row r="920" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -29012,7 +29007,7 @@
       <c r="AB920" s="3"/>
       <c r="AC920" s="3"/>
     </row>
-    <row r="921" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -29043,7 +29038,7 @@
       <c r="AB921" s="3"/>
       <c r="AC921" s="3"/>
     </row>
-    <row r="922" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -29074,7 +29069,7 @@
       <c r="AB922" s="3"/>
       <c r="AC922" s="3"/>
     </row>
-    <row r="923" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -29105,7 +29100,7 @@
       <c r="AB923" s="3"/>
       <c r="AC923" s="3"/>
     </row>
-    <row r="924" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -29136,7 +29131,7 @@
       <c r="AB924" s="3"/>
       <c r="AC924" s="3"/>
     </row>
-    <row r="925" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -29167,7 +29162,7 @@
       <c r="AB925" s="3"/>
       <c r="AC925" s="3"/>
     </row>
-    <row r="926" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -29198,7 +29193,7 @@
       <c r="AB926" s="3"/>
       <c r="AC926" s="3"/>
     </row>
-    <row r="927" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -29229,7 +29224,7 @@
       <c r="AB927" s="3"/>
       <c r="AC927" s="3"/>
     </row>
-    <row r="928" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -29260,7 +29255,7 @@
       <c r="AB928" s="3"/>
       <c r="AC928" s="3"/>
     </row>
-    <row r="929" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -29291,7 +29286,7 @@
       <c r="AB929" s="3"/>
       <c r="AC929" s="3"/>
     </row>
-    <row r="930" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -29322,7 +29317,7 @@
       <c r="AB930" s="3"/>
       <c r="AC930" s="3"/>
     </row>
-    <row r="931" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -29353,7 +29348,7 @@
       <c r="AB931" s="3"/>
       <c r="AC931" s="3"/>
     </row>
-    <row r="932" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -29384,7 +29379,7 @@
       <c r="AB932" s="3"/>
       <c r="AC932" s="3"/>
     </row>
-    <row r="933" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -29415,7 +29410,7 @@
       <c r="AB933" s="3"/>
       <c r="AC933" s="3"/>
     </row>
-    <row r="934" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -29446,7 +29441,7 @@
       <c r="AB934" s="3"/>
       <c r="AC934" s="3"/>
     </row>
-    <row r="935" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -29477,7 +29472,7 @@
       <c r="AB935" s="3"/>
       <c r="AC935" s="3"/>
     </row>
-    <row r="936" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -29508,7 +29503,7 @@
       <c r="AB936" s="3"/>
       <c r="AC936" s="3"/>
     </row>
-    <row r="937" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -29539,7 +29534,7 @@
       <c r="AB937" s="3"/>
       <c r="AC937" s="3"/>
     </row>
-    <row r="938" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -29570,7 +29565,7 @@
       <c r="AB938" s="3"/>
       <c r="AC938" s="3"/>
     </row>
-    <row r="939" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -29601,7 +29596,7 @@
       <c r="AB939" s="3"/>
       <c r="AC939" s="3"/>
     </row>
-    <row r="940" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -29632,7 +29627,7 @@
       <c r="AB940" s="3"/>
       <c r="AC940" s="3"/>
     </row>
-    <row r="941" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -29663,7 +29658,7 @@
       <c r="AB941" s="3"/>
       <c r="AC941" s="3"/>
     </row>
-    <row r="942" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -29694,7 +29689,7 @@
       <c r="AB942" s="3"/>
       <c r="AC942" s="3"/>
     </row>
-    <row r="943" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -29725,7 +29720,7 @@
       <c r="AB943" s="3"/>
       <c r="AC943" s="3"/>
     </row>
-    <row r="944" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -29756,7 +29751,7 @@
       <c r="AB944" s="3"/>
       <c r="AC944" s="3"/>
     </row>
-    <row r="945" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -29787,7 +29782,7 @@
       <c r="AB945" s="3"/>
       <c r="AC945" s="3"/>
     </row>
-    <row r="946" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -29818,7 +29813,7 @@
       <c r="AB946" s="3"/>
       <c r="AC946" s="3"/>
     </row>
-    <row r="947" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -29849,7 +29844,7 @@
       <c r="AB947" s="3"/>
       <c r="AC947" s="3"/>
     </row>
-    <row r="948" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -29880,7 +29875,7 @@
       <c r="AB948" s="3"/>
       <c r="AC948" s="3"/>
     </row>
-    <row r="949" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -29911,7 +29906,7 @@
       <c r="AB949" s="3"/>
       <c r="AC949" s="3"/>
     </row>
-    <row r="950" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -29942,7 +29937,7 @@
       <c r="AB950" s="3"/>
       <c r="AC950" s="3"/>
     </row>
-    <row r="951" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -29973,7 +29968,7 @@
       <c r="AB951" s="3"/>
       <c r="AC951" s="3"/>
     </row>
-    <row r="952" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -30004,7 +29999,7 @@
       <c r="AB952" s="3"/>
       <c r="AC952" s="3"/>
     </row>
-    <row r="953" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -30035,7 +30030,7 @@
       <c r="AB953" s="3"/>
       <c r="AC953" s="3"/>
     </row>
-    <row r="954" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -30066,7 +30061,7 @@
       <c r="AB954" s="3"/>
       <c r="AC954" s="3"/>
     </row>
-    <row r="955" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -30097,7 +30092,7 @@
       <c r="AB955" s="3"/>
       <c r="AC955" s="3"/>
     </row>
-    <row r="956" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -30128,7 +30123,7 @@
       <c r="AB956" s="3"/>
       <c r="AC956" s="3"/>
     </row>
-    <row r="957" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -30159,7 +30154,7 @@
       <c r="AB957" s="3"/>
       <c r="AC957" s="3"/>
     </row>
-    <row r="958" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -30190,7 +30185,7 @@
       <c r="AB958" s="3"/>
       <c r="AC958" s="3"/>
     </row>
-    <row r="959" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -30221,7 +30216,7 @@
       <c r="AB959" s="3"/>
       <c r="AC959" s="3"/>
     </row>
-    <row r="960" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -30252,7 +30247,7 @@
       <c r="AB960" s="3"/>
       <c r="AC960" s="3"/>
     </row>
-    <row r="961" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -30283,7 +30278,7 @@
       <c r="AB961" s="3"/>
       <c r="AC961" s="3"/>
     </row>
-    <row r="962" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -30314,7 +30309,7 @@
       <c r="AB962" s="3"/>
       <c r="AC962" s="3"/>
     </row>
-    <row r="963" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -30345,7 +30340,7 @@
       <c r="AB963" s="3"/>
       <c r="AC963" s="3"/>
     </row>
-    <row r="964" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -30376,7 +30371,7 @@
       <c r="AB964" s="3"/>
       <c r="AC964" s="3"/>
     </row>
-    <row r="965" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -30407,7 +30402,7 @@
       <c r="AB965" s="3"/>
       <c r="AC965" s="3"/>
     </row>
-    <row r="966" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -30438,7 +30433,7 @@
       <c r="AB966" s="3"/>
       <c r="AC966" s="3"/>
     </row>
-    <row r="967" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -30469,7 +30464,7 @@
       <c r="AB967" s="3"/>
       <c r="AC967" s="3"/>
     </row>
-    <row r="968" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -30500,7 +30495,7 @@
       <c r="AB968" s="3"/>
       <c r="AC968" s="3"/>
     </row>
-    <row r="969" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -30531,7 +30526,7 @@
       <c r="AB969" s="3"/>
       <c r="AC969" s="3"/>
     </row>
-    <row r="970" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -30562,7 +30557,7 @@
       <c r="AB970" s="3"/>
       <c r="AC970" s="3"/>
     </row>
-    <row r="971" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -30593,7 +30588,7 @@
       <c r="AB971" s="3"/>
       <c r="AC971" s="3"/>
     </row>
-    <row r="972" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -30624,7 +30619,7 @@
       <c r="AB972" s="3"/>
       <c r="AC972" s="3"/>
     </row>
-    <row r="973" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -30655,7 +30650,7 @@
       <c r="AB973" s="3"/>
       <c r="AC973" s="3"/>
     </row>
-    <row r="974" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -30686,7 +30681,7 @@
       <c r="AB974" s="3"/>
       <c r="AC974" s="3"/>
     </row>
-    <row r="975" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -30717,7 +30712,7 @@
       <c r="AB975" s="3"/>
       <c r="AC975" s="3"/>
     </row>
-    <row r="976" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -30748,7 +30743,7 @@
       <c r="AB976" s="3"/>
       <c r="AC976" s="3"/>
     </row>
-    <row r="977" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -30779,7 +30774,7 @@
       <c r="AB977" s="3"/>
       <c r="AC977" s="3"/>
     </row>
-    <row r="978" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -30810,7 +30805,7 @@
       <c r="AB978" s="3"/>
       <c r="AC978" s="3"/>
     </row>
-    <row r="979" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -30841,7 +30836,7 @@
       <c r="AB979" s="3"/>
       <c r="AC979" s="3"/>
     </row>
-    <row r="980" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -30872,7 +30867,7 @@
       <c r="AB980" s="3"/>
       <c r="AC980" s="3"/>
     </row>
-    <row r="981" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -30903,7 +30898,7 @@
       <c r="AB981" s="3"/>
       <c r="AC981" s="3"/>
     </row>
-    <row r="982" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -30934,7 +30929,7 @@
       <c r="AB982" s="3"/>
       <c r="AC982" s="3"/>
     </row>
-    <row r="983" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -30965,7 +30960,7 @@
       <c r="AB983" s="3"/>
       <c r="AC983" s="3"/>
     </row>
-    <row r="984" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -30996,7 +30991,7 @@
       <c r="AB984" s="3"/>
       <c r="AC984" s="3"/>
     </row>
-    <row r="985" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -31027,7 +31022,7 @@
       <c r="AB985" s="3"/>
       <c r="AC985" s="3"/>
     </row>
-    <row r="986" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -31058,7 +31053,7 @@
       <c r="AB986" s="3"/>
       <c r="AC986" s="3"/>
     </row>
-    <row r="987" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -31089,7 +31084,7 @@
       <c r="AB987" s="3"/>
       <c r="AC987" s="3"/>
     </row>
-    <row r="988" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -31120,7 +31115,7 @@
       <c r="AB988" s="3"/>
       <c r="AC988" s="3"/>
     </row>
-    <row r="989" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -31151,7 +31146,7 @@
       <c r="AB989" s="3"/>
       <c r="AC989" s="3"/>
     </row>
-    <row r="990" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -31182,7 +31177,7 @@
       <c r="AB990" s="3"/>
       <c r="AC990" s="3"/>
     </row>
-    <row r="991" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -31213,7 +31208,7 @@
       <c r="AB991" s="3"/>
       <c r="AC991" s="3"/>
     </row>
-    <row r="992" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -31244,7 +31239,7 @@
       <c r="AB992" s="3"/>
       <c r="AC992" s="3"/>
     </row>
-    <row r="993" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -31275,7 +31270,7 @@
       <c r="AB993" s="3"/>
       <c r="AC993" s="3"/>
     </row>
-    <row r="994" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -31306,7 +31301,7 @@
       <c r="AB994" s="3"/>
       <c r="AC994" s="3"/>
     </row>
-    <row r="995" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -31337,7 +31332,7 @@
       <c r="AB995" s="3"/>
       <c r="AC995" s="3"/>
     </row>
-    <row r="996" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -31368,7 +31363,7 @@
       <c r="AB996" s="3"/>
       <c r="AC996" s="3"/>
     </row>
-    <row r="997" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -31399,7 +31394,7 @@
       <c r="AB997" s="3"/>
       <c r="AC997" s="3"/>
     </row>
-    <row r="998" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -31430,7 +31425,7 @@
       <c r="AB998" s="3"/>
       <c r="AC998" s="3"/>
     </row>
-    <row r="999" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -31461,7 +31456,7 @@
       <c r="AB999" s="3"/>
       <c r="AC999" s="3"/>
     </row>
-    <row r="1000" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="8"/>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
+++ b/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566E9FE-D189-4480-B2EA-019E7D948E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BCDDF9-BFAE-4538-882A-3B29D03EF0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="5685" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="4965" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -687,235 +687,235 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P51_G</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/G.png</t>
+    <t>P51_PG</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
     <t>Y,Gは灯色</t>
   </si>
   <si>
-    <t>P51_Y</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/Y.png</t>
+    <t>P51_PY</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
     <t>P52</t>
   </si>
   <si>
-    <t>P52_G</t>
-  </si>
-  <si>
-    <t>P52_Y</t>
+    <t>P52_PG</t>
+  </si>
+  <si>
+    <t>P52_PY</t>
   </si>
   <si>
     <t>P53</t>
   </si>
   <si>
-    <t>P53_G</t>
-  </si>
-  <si>
-    <t>P53_Y</t>
+    <t>P53_PG</t>
+  </si>
+  <si>
+    <t>P53_PY</t>
   </si>
   <si>
     <t>P54</t>
   </si>
   <si>
-    <t>P54_G</t>
-  </si>
-  <si>
-    <t>P54_Y</t>
+    <t>P54_PG</t>
+  </si>
+  <si>
+    <t>P54_PY</t>
   </si>
   <si>
     <t>P55</t>
   </si>
   <si>
-    <t>P55_G</t>
-  </si>
-  <si>
-    <t>P55_Y</t>
+    <t>P55_PG</t>
+  </si>
+  <si>
+    <t>P55_PY</t>
   </si>
   <si>
     <t>P56</t>
   </si>
   <si>
-    <t>P56_G</t>
-  </si>
-  <si>
-    <t>P56_Y</t>
+    <t>P56_PG</t>
+  </si>
+  <si>
+    <t>P56_PY</t>
   </si>
   <si>
     <t>P57</t>
   </si>
   <si>
-    <t>P57_G</t>
-  </si>
-  <si>
-    <t>P57_Y</t>
+    <t>P57_PG</t>
+  </si>
+  <si>
+    <t>P57_PY</t>
   </si>
   <si>
     <t>P61</t>
   </si>
   <si>
-    <t>P61_G</t>
-  </si>
-  <si>
-    <t>P61_Y</t>
+    <t>P61_PG</t>
+  </si>
+  <si>
+    <t>P61_PY</t>
   </si>
   <si>
     <t>P62</t>
   </si>
   <si>
-    <t>P62_G</t>
-  </si>
-  <si>
-    <t>P62_Y</t>
+    <t>P62_PG</t>
+  </si>
+  <si>
+    <t>P62_PY</t>
   </si>
   <si>
     <t>P63</t>
   </si>
   <si>
-    <t>P63_G</t>
-  </si>
-  <si>
-    <t>P63_Y</t>
+    <t>P63_PG</t>
+  </si>
+  <si>
+    <t>P63_PY</t>
   </si>
   <si>
     <t>P64</t>
   </si>
   <si>
-    <t>P64_G</t>
-  </si>
-  <si>
-    <t>P64_Y</t>
+    <t>P64_PG</t>
+  </si>
+  <si>
+    <t>P64_PY</t>
   </si>
   <si>
     <t>P65</t>
   </si>
   <si>
-    <t>P65_G</t>
-  </si>
-  <si>
-    <t>P65_Y</t>
+    <t>P65_PG</t>
+  </si>
+  <si>
+    <t>P65_PY</t>
   </si>
   <si>
     <t>P66</t>
   </si>
   <si>
-    <t>P66_G</t>
-  </si>
-  <si>
-    <t>P66_Y</t>
+    <t>P66_PG</t>
+  </si>
+  <si>
+    <t>P66_PY</t>
   </si>
   <si>
     <t>P67</t>
   </si>
   <si>
-    <t>P67_G</t>
-  </si>
-  <si>
-    <t>P67_Y</t>
+    <t>P67_PG</t>
+  </si>
+  <si>
+    <t>P67_PY</t>
   </si>
   <si>
     <t>P68</t>
   </si>
   <si>
-    <t>P68_G</t>
-  </si>
-  <si>
-    <t>P68_Y</t>
+    <t>P68_PG</t>
+  </si>
+  <si>
+    <t>P68_PY</t>
   </si>
   <si>
     <t>P69</t>
   </si>
   <si>
-    <t>P69_G</t>
-  </si>
-  <si>
-    <t>P69_Y</t>
+    <t>P69_PG</t>
+  </si>
+  <si>
+    <t>P69_PY</t>
   </si>
   <si>
     <t>P70</t>
   </si>
   <si>
-    <t>P70_G</t>
-  </si>
-  <si>
-    <t>P70_Y</t>
+    <t>P70_PG</t>
+  </si>
+  <si>
+    <t>P70_PY</t>
   </si>
   <si>
     <t>P71</t>
   </si>
   <si>
-    <t>P71_G</t>
-  </si>
-  <si>
-    <t>P71_Y</t>
+    <t>P71_PG</t>
+  </si>
+  <si>
+    <t>P71_PY</t>
   </si>
   <si>
     <t>P72</t>
   </si>
   <si>
-    <t>P72_G</t>
-  </si>
-  <si>
-    <t>P72_Y</t>
+    <t>P72_PG</t>
+  </si>
+  <si>
+    <t>P72_PY</t>
   </si>
   <si>
     <t>P73</t>
   </si>
   <si>
-    <t>P73_G</t>
-  </si>
-  <si>
-    <t>P73_Y</t>
+    <t>P73_PG</t>
+  </si>
+  <si>
+    <t>P73_PY</t>
   </si>
   <si>
     <t>P74</t>
   </si>
   <si>
-    <t>P74_G</t>
-  </si>
-  <si>
-    <t>P74_Y</t>
+    <t>P74_PG</t>
+  </si>
+  <si>
+    <t>P74_PY</t>
   </si>
   <si>
     <t>P75</t>
   </si>
   <si>
-    <t>P75_G</t>
-  </si>
-  <si>
-    <t>P75_Y</t>
+    <t>P75_PG</t>
+  </si>
+  <si>
+    <t>P75_PY</t>
   </si>
   <si>
     <t>P76</t>
   </si>
   <si>
-    <t>P76_G</t>
-  </si>
-  <si>
-    <t>P76_Y</t>
+    <t>P76_PG</t>
+  </si>
+  <si>
+    <t>P76_PY</t>
   </si>
   <si>
     <t>P77</t>
   </si>
   <si>
-    <t>P77_G</t>
-  </si>
-  <si>
-    <t>P77_Y</t>
+    <t>P77_PG</t>
+  </si>
+  <si>
+    <t>P77_PY</t>
   </si>
   <si>
     <t>P78</t>
   </si>
   <si>
-    <t>P78_G</t>
-  </si>
-  <si>
-    <t>P78_Y</t>
+    <t>P78_PG</t>
+  </si>
+  <si>
+    <t>P78_PY</t>
   </si>
   <si>
     <t>警報上り接近</t>
@@ -948,10 +948,10 @@
     <t>駅扱切換はLR</t>
   </si>
   <si>
-    <t>駅扱切替_G</t>
-  </si>
-  <si>
-    <t>駅扱切替_Y</t>
+    <t>駅扱切替_PG</t>
+  </si>
+  <si>
+    <t>駅扱切替_PY</t>
   </si>
   <si>
     <t>TextBlock</t>
@@ -1112,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,9 +1142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1744,7 +1741,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>1558</v>
+        <v>1588</v>
       </c>
       <c r="F8" s="4">
         <v>667</v>
@@ -1793,7 +1790,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>1558</v>
+        <v>1588</v>
       </c>
       <c r="F9" s="4">
         <v>717</v>
@@ -4235,7 +4232,7 @@
         <v>35</v>
       </c>
       <c r="R74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="7" t="s">
@@ -4282,7 +4279,7 @@
         <v>35</v>
       </c>
       <c r="R75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="7" t="s">
@@ -4376,7 +4373,7 @@
         <v>35</v>
       </c>
       <c r="R77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="7" t="s">
@@ -4421,7 +4418,7 @@
         <v>35</v>
       </c>
       <c r="R78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="7" t="s">
@@ -4515,7 +4512,7 @@
         <v>35</v>
       </c>
       <c r="R80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="7" t="s">
@@ -4560,7 +4557,7 @@
         <v>35</v>
       </c>
       <c r="R81" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="7" t="s">
@@ -4654,7 +4651,7 @@
         <v>35</v>
       </c>
       <c r="R83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="7" t="s">
@@ -4699,7 +4696,7 @@
         <v>35</v>
       </c>
       <c r="R84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="7" t="s">
@@ -4793,7 +4790,7 @@
         <v>35</v>
       </c>
       <c r="R86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="7" t="s">
@@ -4838,7 +4835,7 @@
         <v>35</v>
       </c>
       <c r="R87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="7" t="s">
@@ -4932,7 +4929,7 @@
         <v>35</v>
       </c>
       <c r="R89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="7" t="s">
@@ -4977,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="R90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="7" t="s">
@@ -5071,7 +5068,7 @@
         <v>35</v>
       </c>
       <c r="R92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="7" t="s">
@@ -5116,7 +5113,7 @@
         <v>35</v>
       </c>
       <c r="R93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="7" t="s">
@@ -7091,11 +7088,11 @@
       <c r="Q151" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R151" s="5">
-        <v>1</v>
+      <c r="R151" s="9">
+        <v>0</v>
       </c>
       <c r="S151" s="10"/>
-      <c r="T151" s="11" t="s">
+      <c r="T151" s="7" t="s">
         <v>102</v>
       </c>
       <c r="U151" s="3"/>
@@ -7136,11 +7133,11 @@
       <c r="Q152" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R152" s="5">
-        <v>1</v>
+      <c r="R152" s="9">
+        <v>0</v>
       </c>
       <c r="S152" s="10"/>
-      <c r="T152" s="11" t="s">
+      <c r="T152" s="7" t="s">
         <v>105</v>
       </c>
       <c r="U152" s="3"/>
@@ -7165,16 +7162,16 @@
         <v>34</v>
       </c>
       <c r="E153" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F153" s="9">
         <v>20</v>
       </c>
       <c r="G153" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H153" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -7220,16 +7217,16 @@
         <v>39</v>
       </c>
       <c r="E154" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F154" s="9">
         <v>20</v>
       </c>
       <c r="G154" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H154" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -7275,16 +7272,16 @@
         <v>40</v>
       </c>
       <c r="E155" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F155" s="9">
         <v>20</v>
       </c>
       <c r="G155" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H155" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -7330,16 +7327,16 @@
         <v>44</v>
       </c>
       <c r="E156" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F156" s="9">
         <v>20</v>
       </c>
       <c r="G156" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H156" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -7385,16 +7382,16 @@
         <v>45</v>
       </c>
       <c r="E157" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F157" s="9">
         <v>20</v>
       </c>
       <c r="G157" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H157" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -7446,10 +7443,10 @@
         <v>20</v>
       </c>
       <c r="G158" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -7501,10 +7498,10 @@
         <v>20</v>
       </c>
       <c r="G159" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H159" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -7556,10 +7553,10 @@
         <v>20</v>
       </c>
       <c r="G160" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H160" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -7611,10 +7608,10 @@
         <v>20</v>
       </c>
       <c r="G161" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H161" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -7666,10 +7663,10 @@
         <v>20</v>
       </c>
       <c r="G162" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H162" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -7715,16 +7712,16 @@
         <v>54</v>
       </c>
       <c r="E163" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F163" s="9">
         <v>20</v>
       </c>
       <c r="G163" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H163" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -7776,10 +7773,10 @@
         <v>20</v>
       </c>
       <c r="G164" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H164" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -7825,16 +7822,16 @@
         <v>58</v>
       </c>
       <c r="E165" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F165" s="9">
         <v>20</v>
       </c>
       <c r="G165" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H165" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -8216,10 +8213,10 @@
         <v>20</v>
       </c>
       <c r="G172" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H172" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -8271,10 +8268,10 @@
         <v>20</v>
       </c>
       <c r="G173" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H173" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -8326,10 +8323,10 @@
         <v>20</v>
       </c>
       <c r="G174" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -8381,10 +8378,10 @@
         <v>20</v>
       </c>
       <c r="G175" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H175" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8436,10 +8433,10 @@
         <v>20</v>
       </c>
       <c r="G176" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H176" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -8491,10 +8488,10 @@
         <v>20</v>
       </c>
       <c r="G177" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H177" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -8546,10 +8543,10 @@
         <v>20</v>
       </c>
       <c r="G178" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H178" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>

--- a/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
+++ b/exe/TSV/Excel/W11_江ノ原検車区操作盤_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BCDDF9-BFAE-4538-882A-3B29D03EF0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31821AA-A157-4975-8B34-B7C7C3179C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="4965" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="5460" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,8 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
+</t>
         </r>
       </text>
     </comment>
@@ -102,11 +103,38 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>制御条件に含む転てつ器の定位・反位（省略可）
+定位=True, 反位=False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="226">
   <si>
     <t>Type</t>
   </si>
@@ -394,6 +422,12 @@
   </si>
   <si>
     <t>ParentName</t>
+  </si>
+  <si>
+    <t>PointName</t>
+  </si>
+  <si>
+    <t>PointValue</t>
   </si>
   <si>
     <t>X</t>
@@ -1115,10 +1149,10 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1360,7 +1394,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1369,18 +1403,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="37.5703125" customWidth="1"/>
-    <col min="20" max="20" width="100.140625" customWidth="1"/>
-    <col min="21" max="21" width="62.5703125" customWidth="1"/>
-    <col min="22" max="29" width="14" customWidth="1"/>
+    <col min="3" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" customWidth="1"/>
+    <col min="22" max="22" width="100.140625" customWidth="1"/>
+    <col min="23" max="23" width="62.5703125" customWidth="1"/>
+    <col min="24" max="31" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,38 +1472,44 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-    </row>
-    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1481,11 +1521,11 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1493,30 +1533,32 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="5">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5">
         <v>1650</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H3" s="5">
         <v>78</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>79</v>
       </c>
-      <c r="H3" s="5">
+      <c r="J3" s="5">
         <v>110</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1526,11 +1568,11 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1538,32 +1580,34 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>37</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <v>63</v>
       </c>
-      <c r="H4" s="5">
+      <c r="J4" s="5">
         <v>63</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1572,14 +1616,14 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -1587,26 +1631,28 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-    </row>
-    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="5">
-        <f>E3+11</f>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5">
+        <f>G3+11</f>
         <v>1661</v>
       </c>
-      <c r="F5" s="5">
-        <f>F3-68</f>
+      <c r="H5" s="5">
+        <f>H3-68</f>
         <v>10</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1618,36 +1664,38 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="6"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-    </row>
-    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>433</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>767</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1655,50 +1703,52 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="V6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-    </row>
-    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1338</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>717</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1706,23 +1756,23 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1730,24 +1780,26 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>1588</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>667</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1755,23 +1807,23 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="5">
         <v>0</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="U8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1779,24 +1831,26 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-    </row>
-    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>1588</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>717</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1804,23 +1858,23 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1828,24 +1882,26 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>1748</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <v>817</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1853,23 +1909,23 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1877,24 +1933,26 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>722</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>717</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1902,50 +1960,52 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="5">
         <v>0</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="U11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>870</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <v>717</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1953,23 +2013,23 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="5">
         <v>0</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="U12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1977,24 +2037,26 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>1280</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>717</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2002,23 +2064,23 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="5">
         <v>0</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="U13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2026,24 +2088,26 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>1440</v>
       </c>
-      <c r="F14" s="4">
+      <c r="H14" s="4">
         <v>667</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2051,23 +2115,23 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="5">
         <v>0</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="U14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2075,24 +2139,26 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>1646</v>
       </c>
-      <c r="F15" s="4">
+      <c r="H15" s="4">
         <v>667</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2100,23 +2166,23 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="5">
         <v>0</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="U15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2124,24 +2190,26 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1704</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H16" s="4">
         <v>667</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2149,50 +2217,52 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="5">
         <v>0</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="U16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>1646</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H17" s="4">
         <v>717</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2200,23 +2270,23 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="5">
         <v>0</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="U17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2224,24 +2294,26 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>1704</v>
       </c>
-      <c r="F18" s="4">
+      <c r="H18" s="4">
         <v>717</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2249,23 +2321,23 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" s="5">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="5">
         <v>0</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="U18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2273,11 +2345,13 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-    </row>
-    <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2296,9 +2370,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="8"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -2306,11 +2380,13 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2329,9 +2405,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="8"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2339,11 +2415,13 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2362,9 +2440,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="8"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -2372,11 +2450,13 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2395,9 +2475,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -2405,11 +2485,13 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2428,9 +2510,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="8"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -2438,11 +2520,13 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2461,9 +2545,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="8"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -2471,11 +2555,13 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2494,9 +2580,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="8"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -2504,11 +2590,13 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-    </row>
-    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2527,9 +2615,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="8"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -2537,11 +2625,13 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2560,9 +2650,9 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="8"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -2570,11 +2660,13 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-    </row>
-    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2593,9 +2685,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="8"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -2603,11 +2695,13 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-    </row>
-    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2626,9 +2720,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="8"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -2636,11 +2730,13 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-    </row>
-    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2659,9 +2755,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -2669,11 +2765,13 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-    </row>
-    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2692,9 +2790,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="8"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2702,11 +2800,13 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-    </row>
-    <row r="32" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2725,9 +2825,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="8"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -2735,11 +2835,13 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-    </row>
-    <row r="33" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2758,9 +2860,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="8"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2768,11 +2870,13 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-    </row>
-    <row r="34" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2791,9 +2895,9 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -2801,11 +2905,13 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-    </row>
-    <row r="35" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2824,9 +2930,9 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="8"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2834,11 +2940,13 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-    </row>
-    <row r="36" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2857,9 +2965,9 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="8"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2867,11 +2975,13 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-    </row>
-    <row r="37" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2890,9 +3000,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="8"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -2900,11 +3010,13 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-    </row>
-    <row r="38" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2923,9 +3035,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="8"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -2933,11 +3045,13 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-    </row>
-    <row r="39" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2956,9 +3070,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="8"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -2966,11 +3080,13 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2989,9 +3105,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="8"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -2999,11 +3115,13 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3022,9 +3140,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="8"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -3032,11 +3150,13 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-    </row>
-    <row r="42" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3055,9 +3175,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="8"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -3065,11 +3185,13 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-    </row>
-    <row r="43" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3088,9 +3210,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="8"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -3098,24 +3220,26 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-    </row>
-    <row r="44" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4">
         <v>1762</v>
       </c>
-      <c r="F44" s="4">
+      <c r="H44" s="4">
         <v>680</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3123,23 +3247,23 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R44" s="5">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="5">
         <v>0</v>
       </c>
-      <c r="S44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T44" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="U44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
@@ -3147,24 +3271,26 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-    </row>
-    <row r="45" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
         <v>1762</v>
       </c>
-      <c r="F45" s="4">
+      <c r="H45" s="4">
         <v>730</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3172,23 +3298,23 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0</v>
+      </c>
+      <c r="U45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="V45" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -3196,24 +3322,26 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4">
         <v>1654</v>
       </c>
-      <c r="F46" s="4">
+      <c r="H46" s="4">
         <v>780</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3221,23 +3349,23 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="5">
+        <v>0</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -3245,24 +3373,26 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-    </row>
-    <row r="47" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4">
         <v>533</v>
       </c>
-      <c r="F47" s="4">
+      <c r="H47" s="4">
         <v>730</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3270,23 +3400,23 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R47" s="5">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="5">
         <v>0</v>
       </c>
-      <c r="S47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="U47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
@@ -3294,24 +3424,26 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-    </row>
-    <row r="48" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4">
         <v>541</v>
       </c>
-      <c r="F48" s="4">
+      <c r="H48" s="4">
         <v>830</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3319,23 +3451,23 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R48" s="5">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" s="5">
         <v>0</v>
       </c>
-      <c r="S48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
+      <c r="U48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -3343,11 +3475,13 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-    </row>
-    <row r="49" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3366,9 +3500,9 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="8"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
@@ -3376,11 +3510,13 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-    </row>
-    <row r="50" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3399,9 +3535,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="8"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
@@ -3409,11 +3545,13 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-    </row>
-    <row r="51" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3432,9 +3570,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="8"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -3442,11 +3580,13 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-    </row>
-    <row r="52" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3465,9 +3605,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="8"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
@@ -3475,8 +3615,10 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-    </row>
-    <row r="53" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>1</v>
@@ -3498,9 +3640,9 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="8"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
@@ -3508,8 +3650,10 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-    </row>
-    <row r="54" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
         <v>2</v>
@@ -3531,9 +3675,9 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="8"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
@@ -3541,8 +3685,10 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-    </row>
-    <row r="55" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
         <v>3</v>
@@ -3564,9 +3710,9 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="8"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -3574,8 +3720,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
         <v>4</v>
@@ -3597,9 +3745,9 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="8"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -3607,8 +3755,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
         <v>5</v>
@@ -3630,9 +3780,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="8"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
@@ -3640,8 +3790,10 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-    </row>
-    <row r="58" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>6</v>
@@ -3663,9 +3815,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="8"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
@@ -3673,8 +3825,10 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-    </row>
-    <row r="59" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4">
         <v>7</v>
@@ -3696,9 +3850,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="8"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
@@ -3706,8 +3860,10 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-    </row>
-    <row r="60" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4">
         <v>8</v>
@@ -3729,9 +3885,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="8"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
@@ -3739,8 +3895,10 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-    </row>
-    <row r="61" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4">
         <v>9</v>
@@ -3762,9 +3920,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="8"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
@@ -3772,24 +3930,26 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-    </row>
-    <row r="62" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="4">
         <v>13</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
         <v>1148</v>
       </c>
-      <c r="F62" s="4">
+      <c r="H62" s="4">
         <v>730</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3797,23 +3957,23 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="4">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4">
         <v>13</v>
       </c>
-      <c r="Q62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R62" s="5">
+      <c r="S62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" s="5">
         <v>0</v>
       </c>
-      <c r="S62" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
+      <c r="U62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V62" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
@@ -3821,8 +3981,10 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-    </row>
-    <row r="63" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>21</v>
@@ -3844,9 +4006,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="8"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
@@ -3854,8 +4016,10 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-    </row>
-    <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4">
         <v>22</v>
@@ -3877,9 +4041,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="8"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
@@ -3887,8 +4051,10 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-    </row>
-    <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4">
         <v>23</v>
@@ -3910,9 +4076,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="8"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
@@ -3920,8 +4086,10 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-    </row>
-    <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
         <v>24</v>
@@ -3943,9 +4111,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="8"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
@@ -3953,8 +4121,10 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
-    </row>
-    <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>25</v>
@@ -3976,9 +4146,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="8"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
@@ -3986,8 +4156,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4">
         <v>26</v>
@@ -4009,9 +4181,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="8"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
@@ -4019,8 +4191,10 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-    </row>
-    <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4">
         <v>27</v>
@@ -4042,9 +4216,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="8"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
@@ -4052,8 +4226,10 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-    </row>
-    <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4">
         <v>28</v>
@@ -4075,9 +4251,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="8"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
@@ -4085,8 +4261,10 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-    </row>
-    <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4">
         <v>29</v>
@@ -4108,9 +4286,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="8"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
@@ -4118,8 +4296,10 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-    </row>
-    <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4">
         <v>30</v>
@@ -4141,9 +4321,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="8"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
@@ -4151,24 +4331,26 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
-    </row>
-    <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4">
         <v>33</v>
       </c>
-      <c r="F73" s="4">
+      <c r="H73" s="4">
         <v>681</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4176,50 +4358,52 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R73" s="5">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T73" s="5">
         <v>0</v>
       </c>
-      <c r="S73" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U73" s="3" t="s">
+      <c r="U73" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="V73" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
-    </row>
-    <row r="74" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4">
         <v>31</v>
       </c>
-      <c r="F74" s="4">
+      <c r="H74" s="4">
         <v>662</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4227,46 +4411,48 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R74" s="5">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T74" s="5">
         <v>0</v>
       </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
-    </row>
-    <row r="75" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4">
         <v>65</v>
       </c>
-      <c r="F75" s="4">
+      <c r="H75" s="4">
         <v>662</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -4274,19 +4460,19 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R75" s="5">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" s="5">
         <v>0</v>
       </c>
-      <c r="S75" s="6"/>
-      <c r="T75" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
@@ -4294,24 +4480,26 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-    </row>
-    <row r="76" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4">
         <v>101</v>
       </c>
-      <c r="F76" s="4">
+      <c r="H76" s="4">
         <v>681</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -4319,23 +4507,23 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q76" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R76" s="5">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T76" s="5">
         <v>0</v>
       </c>
-      <c r="S76" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T76" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
+      <c r="U76" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V76" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
@@ -4343,24 +4531,26 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-    </row>
-    <row r="77" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4">
         <v>99</v>
       </c>
-      <c r="F77" s="4">
+      <c r="H77" s="4">
         <v>662</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4368,19 +4558,19 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R77" s="5">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" s="5">
         <v>0</v>
       </c>
-      <c r="S77" s="6"/>
-      <c r="T77" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
@@ -4388,24 +4578,26 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-    </row>
-    <row r="78" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4">
         <v>133</v>
       </c>
-      <c r="F78" s="4">
+      <c r="H78" s="4">
         <v>662</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4413,19 +4605,19 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R78" s="5">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" s="5">
         <v>0</v>
       </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
@@ -4433,24 +4625,26 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-    </row>
-    <row r="79" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4">
         <v>169</v>
       </c>
-      <c r="F79" s="4">
+      <c r="H79" s="4">
         <v>681</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4458,23 +4652,23 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R79" s="5">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T79" s="5">
         <v>0</v>
       </c>
-      <c r="S79" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T79" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
+      <c r="U79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V79" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
@@ -4482,24 +4676,26 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
-    </row>
-    <row r="80" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4">
         <v>167</v>
       </c>
-      <c r="F80" s="4">
+      <c r="H80" s="4">
         <v>662</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4508,18 +4704,18 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R80" s="5">
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" s="5">
         <v>0</v>
       </c>
-      <c r="S80" s="6"/>
-      <c r="T80" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
@@ -4527,24 +4723,26 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
-    </row>
-    <row r="81" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4">
         <v>201</v>
       </c>
-      <c r="F81" s="4">
+      <c r="H81" s="4">
         <v>662</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4553,18 +4751,18 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
-      <c r="Q81" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R81" s="5">
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" s="5">
         <v>0</v>
       </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
@@ -4572,24 +4770,26 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
-    </row>
-    <row r="82" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4">
         <v>237</v>
       </c>
-      <c r="F82" s="4">
+      <c r="H82" s="4">
         <v>681</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4597,23 +4797,23 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q82" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R82" s="5">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T82" s="5">
         <v>0</v>
       </c>
-      <c r="S82" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T82" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
+      <c r="U82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V82" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
@@ -4621,24 +4821,26 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4">
         <v>235</v>
       </c>
-      <c r="F83" s="4">
+      <c r="H83" s="4">
         <v>662</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4647,18 +4849,18 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
-      <c r="Q83" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R83" s="5">
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" s="5">
         <v>0</v>
       </c>
-      <c r="S83" s="6"/>
-      <c r="T83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
@@ -4666,24 +4868,26 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-    </row>
-    <row r="84" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4">
         <v>269</v>
       </c>
-      <c r="F84" s="4">
+      <c r="H84" s="4">
         <v>662</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4692,18 +4896,18 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
-      <c r="Q84" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R84" s="5">
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" s="5">
         <v>0</v>
       </c>
-      <c r="S84" s="6"/>
-      <c r="T84" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
@@ -4711,24 +4915,26 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-    </row>
-    <row r="85" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4">
         <v>33</v>
       </c>
-      <c r="F85" s="4">
+      <c r="H85" s="4">
         <v>757</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4736,23 +4942,23 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q85" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R85" s="5">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T85" s="5">
         <v>0</v>
       </c>
-      <c r="S85" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T85" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
+      <c r="U85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V85" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
@@ -4760,24 +4966,26 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-    </row>
-    <row r="86" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4">
         <v>31</v>
       </c>
-      <c r="F86" s="4">
+      <c r="H86" s="4">
         <v>738</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4786,18 +4994,18 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R86" s="5">
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" s="5">
         <v>0</v>
       </c>
-      <c r="S86" s="6"/>
-      <c r="T86" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
@@ -4805,24 +5013,26 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-    </row>
-    <row r="87" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4">
         <v>65</v>
       </c>
-      <c r="F87" s="4">
+      <c r="H87" s="4">
         <v>738</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4831,18 +5041,18 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
-      <c r="Q87" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R87" s="5">
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87" s="5">
         <v>0</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
@@ -4850,24 +5060,26 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-    </row>
-    <row r="88" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4">
         <v>101</v>
       </c>
-      <c r="F88" s="4">
+      <c r="H88" s="4">
         <v>757</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4875,23 +5087,23 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q88" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R88" s="5">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T88" s="5">
         <v>0</v>
       </c>
-      <c r="S88" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
+      <c r="U88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V88" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
@@ -4899,24 +5111,26 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
-    </row>
-    <row r="89" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4">
         <v>99</v>
       </c>
-      <c r="F89" s="4">
+      <c r="H89" s="4">
         <v>738</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4925,18 +5139,18 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
-      <c r="Q89" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R89" s="5">
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T89" s="5">
         <v>0</v>
       </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
@@ -4944,24 +5158,26 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-    </row>
-    <row r="90" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4">
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4">
         <v>133</v>
       </c>
-      <c r="F90" s="4">
+      <c r="H90" s="4">
         <v>738</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4970,18 +5186,18 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R90" s="5">
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T90" s="5">
         <v>0</v>
       </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
@@ -4989,24 +5205,26 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4">
         <v>169</v>
       </c>
-      <c r="F91" s="4">
+      <c r="H91" s="4">
         <v>757</v>
       </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -5014,23 +5232,23 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q91" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R91" s="5">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T91" s="5">
         <v>0</v>
       </c>
-      <c r="S91" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T91" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
+      <c r="U91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V91" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
@@ -5038,24 +5256,26 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-    </row>
-    <row r="92" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4">
         <v>167</v>
       </c>
-      <c r="F92" s="4">
+      <c r="H92" s="4">
         <v>738</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -5064,18 +5284,18 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
-      <c r="Q92" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R92" s="5">
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" s="5">
         <v>0</v>
       </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
@@ -5083,24 +5303,26 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-    </row>
-    <row r="93" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4">
         <v>201</v>
       </c>
-      <c r="F93" s="4">
+      <c r="H93" s="4">
         <v>738</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5109,18 +5331,18 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
-      <c r="Q93" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R93" s="5">
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" s="5">
         <v>0</v>
       </c>
-      <c r="S93" s="6"/>
-      <c r="T93" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
@@ -5128,11 +5350,13 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-    </row>
-    <row r="94" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5151,9 +5375,9 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="8"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
@@ -5161,11 +5385,13 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-    </row>
-    <row r="95" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5184,9 +5410,9 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="8"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
@@ -5194,11 +5420,13 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -5217,9 +5445,9 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="8"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
@@ -5227,11 +5455,13 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-    </row>
-    <row r="97" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -5250,9 +5480,9 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="8"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
@@ -5260,11 +5490,13 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
-    </row>
-    <row r="98" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -5283,9 +5515,9 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="8"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
@@ -5293,11 +5525,13 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
-    </row>
-    <row r="99" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5316,9 +5550,9 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="8"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
@@ -5326,11 +5560,13 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
-    </row>
-    <row r="100" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -5349,9 +5585,9 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="8"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
@@ -5359,11 +5595,13 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
-    </row>
-    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -5382,9 +5620,9 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="8"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
@@ -5392,11 +5630,13 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
-    </row>
-    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -5415,9 +5655,9 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="8"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
@@ -5425,11 +5665,13 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
-    </row>
-    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD102" s="3"/>
+      <c r="AE102" s="3"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -5448,9 +5690,9 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="8"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
@@ -5458,11 +5700,13 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
-    </row>
-    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -5481,9 +5725,9 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="8"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
@@ -5491,11 +5735,13 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
-    </row>
-    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -5514,9 +5760,9 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="8"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
@@ -5524,11 +5770,13 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
-    </row>
-    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -5547,9 +5795,9 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="8"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
@@ -5557,11 +5805,13 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
-    </row>
-    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -5580,9 +5830,9 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="8"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
@@ -5590,11 +5840,13 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
-    </row>
-    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD107" s="3"/>
+      <c r="AE107" s="3"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -5613,9 +5865,9 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="8"/>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
@@ -5623,11 +5875,13 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
-    </row>
-    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -5646,9 +5900,9 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="8"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -5656,11 +5910,13 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
-    </row>
-    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -5679,9 +5935,9 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="8"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
@@ -5689,11 +5945,13 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
-    </row>
-    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -5712,9 +5970,9 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="8"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
@@ -5722,11 +5980,13 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
-    </row>
-    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD111" s="3"/>
+      <c r="AE111" s="3"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -5745,9 +6005,9 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="8"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
@@ -5755,11 +6015,13 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
-    </row>
-    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -5778,9 +6040,9 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="8"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
@@ -5788,11 +6050,13 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
-    </row>
-    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -5811,9 +6075,9 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="8"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
@@ -5821,11 +6085,13 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
-    </row>
-    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -5844,9 +6110,9 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="8"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
@@ -5854,11 +6120,13 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
-    </row>
-    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -5877,9 +6145,9 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="8"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
@@ -5887,11 +6155,13 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
-    </row>
-    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -5910,9 +6180,9 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="8"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
@@ -5920,11 +6190,13 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
-    </row>
-    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -5943,9 +6215,9 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="8"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
@@ -5953,11 +6225,13 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
-    </row>
-    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -5976,9 +6250,9 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="8"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
@@ -5986,11 +6260,13 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
-    </row>
-    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6009,9 +6285,9 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="8"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
@@ -6019,11 +6295,13 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
-    </row>
-    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -6042,9 +6320,9 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="8"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
@@ -6052,11 +6330,13 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
-    </row>
-    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -6075,9 +6355,9 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="8"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
@@ -6085,11 +6365,13 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
-    </row>
-    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -6108,9 +6390,9 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="8"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
@@ -6118,11 +6400,13 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
-    </row>
-    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -6141,9 +6425,9 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="8"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
@@ -6151,11 +6435,13 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
-    </row>
-    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -6174,9 +6460,9 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="8"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
@@ -6184,11 +6470,13 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
-    </row>
-    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -6207,9 +6495,9 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="8"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
@@ -6217,11 +6505,13 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
-    </row>
-    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -6240,9 +6530,9 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="8"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
@@ -6250,11 +6540,13 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
-    </row>
-    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="3"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -6273,9 +6565,9 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="8"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
@@ -6283,11 +6575,13 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
-    </row>
-    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="3"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -6306,9 +6600,9 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="8"/>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
@@ -6316,11 +6610,13 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
-    </row>
-    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD129" s="3"/>
+      <c r="AE129" s="3"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -6339,9 +6635,9 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="8"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
@@ -6349,11 +6645,13 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
-    </row>
-    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="3"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -6372,9 +6670,9 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="8"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
@@ -6382,11 +6680,13 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
-    </row>
-    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -6405,9 +6705,9 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="8"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
@@ -6415,11 +6715,13 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
-    </row>
-    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD132" s="3"/>
+      <c r="AE132" s="3"/>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -6438,9 +6740,9 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="8"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
@@ -6448,11 +6750,13 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
-    </row>
-    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -6471,9 +6775,9 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
-      <c r="T134" s="8"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="8"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
@@ -6481,11 +6785,13 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
-    </row>
-    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -6504,9 +6810,9 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="8"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
@@ -6514,11 +6820,13 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
-    </row>
-    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -6537,9 +6845,9 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
-      <c r="T136" s="8"/>
-      <c r="U136" s="3"/>
-      <c r="V136" s="3"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="8"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
@@ -6547,11 +6855,13 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
-    </row>
-    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="3"/>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -6570,9 +6880,9 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="8"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
@@ -6580,11 +6890,13 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
-    </row>
-    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -6603,9 +6915,9 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-      <c r="T138" s="8"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="8"/>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
@@ -6613,11 +6925,13 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
-    </row>
-    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD138" s="3"/>
+      <c r="AE138" s="3"/>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -6636,9 +6950,9 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-      <c r="T139" s="8"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="8"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
@@ -6646,11 +6960,13 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
-    </row>
-    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -6669,9 +6985,9 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="3"/>
-      <c r="V140" s="3"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="8"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
@@ -6679,11 +6995,13 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
-    </row>
-    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="3"/>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -6702,9 +7020,9 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-      <c r="T141" s="8"/>
-      <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="8"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
@@ -6712,11 +7030,13 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
-    </row>
-    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD141" s="3"/>
+      <c r="AE141" s="3"/>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -6735,9 +7055,9 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="3"/>
-      <c r="V142" s="3"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="8"/>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
@@ -6745,11 +7065,13 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
-    </row>
-    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="3"/>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -6768,9 +7090,9 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
-      <c r="T143" s="8"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="8"/>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
@@ -6778,11 +7100,13 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
-    </row>
-    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="3"/>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -6801,9 +7125,9 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="8"/>
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
@@ -6811,11 +7135,13 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
-    </row>
-    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD144" s="3"/>
+      <c r="AE144" s="3"/>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -6834,9 +7160,9 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
-      <c r="T145" s="8"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="8"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
@@ -6844,11 +7170,13 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
-    </row>
-    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -6867,9 +7195,9 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
-      <c r="T146" s="8"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="8"/>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
@@ -6877,11 +7205,13 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
-    </row>
-    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="3"/>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -6900,9 +7230,9 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="8"/>
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
@@ -6910,24 +7240,26 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
-    </row>
-    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD147" s="3"/>
+      <c r="AE147" s="3"/>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4">
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4">
         <v>604</v>
       </c>
-      <c r="F148" s="4">
+      <c r="H148" s="4">
         <v>911</v>
       </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -6935,23 +7267,23 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
-      <c r="P148" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q148" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R148" s="5">
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T148" s="5">
         <v>0</v>
       </c>
-      <c r="S148" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="T148" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="U148" s="3"/>
-      <c r="V148" s="3"/>
+      <c r="U148" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="V148" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
@@ -6959,24 +7291,26 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
-    </row>
-    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4">
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4">
         <v>1591</v>
       </c>
-      <c r="F149" s="4">
+      <c r="H149" s="4">
         <v>911</v>
       </c>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -6984,23 +7318,23 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
-      <c r="P149" s="4" t="s">
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S149" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T149" s="5">
+        <v>0</v>
+      </c>
+      <c r="U149" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Q149" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R149" s="5">
-        <v>0</v>
-      </c>
-      <c r="S149" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="T149" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
+      <c r="V149" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
@@ -7008,24 +7342,26 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
-    </row>
-    <row r="150" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="3"/>
+    </row>
+    <row r="150" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4">
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4">
         <v>1827</v>
       </c>
-      <c r="F150" s="4">
+      <c r="H150" s="4">
         <v>64</v>
       </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -7033,50 +7369,52 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
-      <c r="P150" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q150" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="R150" s="5">
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T150" s="5">
         <v>1</v>
       </c>
-      <c r="S150" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T150" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="U150" s="3" t="s">
+      <c r="U150" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
+      <c r="V150" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="W150" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
-    </row>
-    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD150" s="3"/>
+      <c r="AE150" s="3"/>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4">
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4">
         <v>1859</v>
       </c>
-      <c r="F151" s="4">
+      <c r="H151" s="4">
         <v>45</v>
       </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -7085,18 +7423,18 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
-      <c r="Q151" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R151" s="9">
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T151" s="9">
         <v>0</v>
       </c>
-      <c r="S151" s="10"/>
-      <c r="T151" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U151" s="3"/>
-      <c r="V151" s="3"/>
+      <c r="U151" s="10"/>
+      <c r="V151" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
@@ -7104,24 +7442,26 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
-    </row>
-    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4">
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4">
         <v>1825</v>
       </c>
-      <c r="F152" s="4">
+      <c r="H152" s="4">
         <v>45</v>
       </c>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -7130,18 +7470,18 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
-      <c r="Q152" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R152" s="9">
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T152" s="9">
         <v>0</v>
       </c>
-      <c r="S152" s="10"/>
-      <c r="T152" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U152" s="3"/>
-      <c r="V152" s="3"/>
+      <c r="U152" s="10"/>
+      <c r="V152" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
@@ -7149,54 +7489,56 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
-    </row>
-    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="3"/>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="9">
+        <v>36</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="9">
         <v>14</v>
       </c>
-      <c r="F153" s="9">
+      <c r="H153" s="9">
         <v>20</v>
       </c>
-      <c r="G153" s="9">
+      <c r="I153" s="9">
         <v>11</v>
       </c>
-      <c r="H153" s="9">
+      <c r="J153" s="9">
         <v>11</v>
       </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="4">
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="9">
+      <c r="O153" s="9">
         <v>10</v>
       </c>
-      <c r="N153" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O153" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P153" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
+      <c r="P153" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q153" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R153" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="S153" s="4"/>
-      <c r="T153" s="8"/>
-      <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="8"/>
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
@@ -7204,54 +7546,56 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
-    </row>
-    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="3"/>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" s="9">
+        <v>41</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="9">
         <v>14</v>
       </c>
-      <c r="F154" s="9">
+      <c r="H154" s="9">
         <v>20</v>
       </c>
-      <c r="G154" s="9">
+      <c r="I154" s="9">
         <v>11</v>
       </c>
-      <c r="H154" s="9">
+      <c r="J154" s="9">
         <v>11</v>
       </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="4">
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4">
         <v>2</v>
       </c>
-      <c r="M154" s="9">
+      <c r="O154" s="9">
         <v>10</v>
       </c>
-      <c r="N154" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O154" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
+      <c r="P154" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q154" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R154" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="S154" s="4"/>
-      <c r="T154" s="8"/>
-      <c r="U154" s="3"/>
-      <c r="V154" s="3"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="8"/>
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
@@ -7259,54 +7603,56 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
-    </row>
-    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="3"/>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E155" s="9">
+        <v>42</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="9">
         <v>14</v>
       </c>
-      <c r="F155" s="9">
+      <c r="H155" s="9">
         <v>20</v>
       </c>
-      <c r="G155" s="9">
+      <c r="I155" s="9">
         <v>11</v>
       </c>
-      <c r="H155" s="9">
+      <c r="J155" s="9">
         <v>11</v>
       </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="4">
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4">
         <v>3</v>
       </c>
-      <c r="M155" s="9">
+      <c r="O155" s="9">
         <v>10</v>
       </c>
-      <c r="N155" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O155" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P155" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
+      <c r="P155" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q155" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R155" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="S155" s="4"/>
-      <c r="T155" s="8"/>
-      <c r="U155" s="3"/>
-      <c r="V155" s="3"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="8"/>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
@@ -7314,54 +7660,56 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
-    </row>
-    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="3"/>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E156" s="9">
+        <v>46</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="9">
         <v>14</v>
       </c>
-      <c r="F156" s="9">
+      <c r="H156" s="9">
         <v>20</v>
       </c>
-      <c r="G156" s="9">
+      <c r="I156" s="9">
         <v>11</v>
       </c>
-      <c r="H156" s="9">
+      <c r="J156" s="9">
         <v>11</v>
       </c>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="4">
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4">
         <v>4</v>
       </c>
-      <c r="M156" s="9">
+      <c r="O156" s="9">
         <v>10</v>
       </c>
-      <c r="N156" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O156" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
+      <c r="P156" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q156" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="S156" s="4"/>
-      <c r="T156" s="8"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+      <c r="V156" s="8"/>
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
@@ -7369,54 +7717,56 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
-    </row>
-    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD156" s="3"/>
+      <c r="AE156" s="3"/>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E157" s="9">
+        <v>47</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="9">
         <v>14</v>
       </c>
-      <c r="F157" s="9">
+      <c r="H157" s="9">
         <v>20</v>
       </c>
-      <c r="G157" s="9">
+      <c r="I157" s="9">
         <v>11</v>
       </c>
-      <c r="H157" s="9">
+      <c r="J157" s="9">
         <v>11</v>
       </c>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="4">
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4">
         <v>5</v>
       </c>
-      <c r="M157" s="9">
+      <c r="O157" s="9">
         <v>10</v>
       </c>
-      <c r="N157" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O157" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P157" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
+      <c r="P157" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q157" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R157" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="S157" s="4"/>
-      <c r="T157" s="8"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="8"/>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
@@ -7424,54 +7774,56 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
-    </row>
-    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="9">
+        <v>48</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="9">
         <v>14</v>
       </c>
-      <c r="F158" s="9">
+      <c r="H158" s="9">
         <v>20</v>
       </c>
-      <c r="G158" s="9">
+      <c r="I158" s="9">
         <v>11</v>
       </c>
-      <c r="H158" s="9">
+      <c r="J158" s="9">
         <v>11</v>
       </c>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="4">
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4">
         <v>11</v>
       </c>
-      <c r="M158" s="9">
+      <c r="O158" s="9">
         <v>10</v>
       </c>
-      <c r="N158" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O158" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P158" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
+      <c r="P158" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q158" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R158" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="S158" s="4"/>
-      <c r="T158" s="8"/>
-      <c r="U158" s="3"/>
-      <c r="V158" s="3"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="8"/>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
@@ -7479,54 +7831,56 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
-    </row>
-    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD158" s="3"/>
+      <c r="AE158" s="3"/>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E159" s="9">
+        <v>51</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="9">
         <v>14</v>
       </c>
-      <c r="F159" s="9">
+      <c r="H159" s="9">
         <v>20</v>
       </c>
-      <c r="G159" s="9">
+      <c r="I159" s="9">
         <v>11</v>
       </c>
-      <c r="H159" s="9">
+      <c r="J159" s="9">
         <v>11</v>
       </c>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="4">
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4">
         <v>12</v>
       </c>
-      <c r="M159" s="9">
+      <c r="O159" s="9">
         <v>10</v>
       </c>
-      <c r="N159" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O159" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P159" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
+      <c r="P159" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q159" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R159" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="S159" s="4"/>
-      <c r="T159" s="8"/>
-      <c r="U159" s="3"/>
-      <c r="V159" s="3"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="8"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
@@ -7534,54 +7888,56 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
-    </row>
-    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD159" s="3"/>
+      <c r="AE159" s="3"/>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E160" s="9">
+        <v>53</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="9">
         <v>14</v>
       </c>
-      <c r="F160" s="9">
+      <c r="H160" s="9">
         <v>20</v>
       </c>
-      <c r="G160" s="9">
+      <c r="I160" s="9">
         <v>11</v>
       </c>
-      <c r="H160" s="9">
+      <c r="J160" s="9">
         <v>11</v>
       </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="4">
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4">
         <v>13</v>
       </c>
-      <c r="M160" s="9">
+      <c r="O160" s="9">
         <v>10</v>
       </c>
-      <c r="N160" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O160" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P160" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
+      <c r="P160" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q160" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R160" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="S160" s="4"/>
-      <c r="T160" s="8"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="8"/>
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
@@ -7589,54 +7945,56 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
-    </row>
-    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E161" s="9">
+        <v>54</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="9">
         <v>14</v>
       </c>
-      <c r="F161" s="9">
+      <c r="H161" s="9">
         <v>20</v>
       </c>
-      <c r="G161" s="9">
+      <c r="I161" s="9">
         <v>11</v>
       </c>
-      <c r="H161" s="9">
+      <c r="J161" s="9">
         <v>11</v>
       </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-      <c r="L161" s="4">
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4">
         <v>14</v>
       </c>
-      <c r="M161" s="9">
+      <c r="O161" s="9">
         <v>10</v>
       </c>
-      <c r="N161" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O161" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P161" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
+      <c r="P161" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q161" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R161" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="S161" s="4"/>
-      <c r="T161" s="8"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="8"/>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
@@ -7644,54 +8002,56 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
-    </row>
-    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E162" s="9">
+        <v>55</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="9">
         <v>14</v>
       </c>
-      <c r="F162" s="9">
+      <c r="H162" s="9">
         <v>20</v>
       </c>
-      <c r="G162" s="9">
+      <c r="I162" s="9">
         <v>11</v>
       </c>
-      <c r="H162" s="9">
+      <c r="J162" s="9">
         <v>11</v>
       </c>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-      <c r="L162" s="4">
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4">
         <v>15</v>
       </c>
-      <c r="M162" s="9">
+      <c r="O162" s="9">
         <v>10</v>
       </c>
-      <c r="N162" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O162" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
+      <c r="P162" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q162" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R162" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="S162" s="4"/>
-      <c r="T162" s="8"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
+      <c r="T162" s="4"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="8"/>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
@@ -7699,54 +8059,56 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
-    </row>
-    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E163" s="9">
+        <v>56</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="9">
         <v>14</v>
       </c>
-      <c r="F163" s="9">
+      <c r="H163" s="9">
         <v>20</v>
       </c>
-      <c r="G163" s="9">
+      <c r="I163" s="9">
         <v>11</v>
       </c>
-      <c r="H163" s="9">
+      <c r="J163" s="9">
         <v>11</v>
       </c>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-      <c r="L163" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="M163" s="9">
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O163" s="9">
         <v>10</v>
       </c>
-      <c r="N163" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O163" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
+      <c r="P163" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q163" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R163" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="S163" s="4"/>
-      <c r="T163" s="8"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="8"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
@@ -7754,54 +8116,56 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
-    </row>
-    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD163" s="3"/>
+      <c r="AE163" s="3"/>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E164" s="9">
+        <v>59</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="9">
         <v>14</v>
       </c>
-      <c r="F164" s="9">
+      <c r="H164" s="9">
         <v>20</v>
       </c>
-      <c r="G164" s="9">
+      <c r="I164" s="9">
         <v>11</v>
       </c>
-      <c r="H164" s="9">
+      <c r="J164" s="9">
         <v>11</v>
       </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-      <c r="L164" s="4">
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4">
         <v>16</v>
       </c>
-      <c r="M164" s="9">
+      <c r="O164" s="9">
         <v>10</v>
       </c>
-      <c r="N164" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O164" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P164" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
+      <c r="P164" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q164" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R164" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="S164" s="4"/>
-      <c r="T164" s="8"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="8"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
@@ -7809,54 +8173,56 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
-    </row>
-    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E165" s="9">
+        <v>60</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="9">
         <v>14</v>
       </c>
-      <c r="F165" s="9">
+      <c r="H165" s="9">
         <v>20</v>
       </c>
-      <c r="G165" s="9">
+      <c r="I165" s="9">
         <v>11</v>
       </c>
-      <c r="H165" s="9">
+      <c r="J165" s="9">
         <v>11</v>
       </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-      <c r="L165" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="M165" s="9">
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O165" s="9">
         <v>10</v>
       </c>
-      <c r="N165" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O165" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
+      <c r="P165" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q165" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R165" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="S165" s="4"/>
-      <c r="T165" s="8"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="8"/>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
@@ -7864,54 +8230,56 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
-    </row>
-    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="3"/>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E166" s="9">
+        <v>87</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="9">
         <v>5</v>
       </c>
-      <c r="F166" s="9">
+      <c r="H166" s="9">
         <v>23</v>
       </c>
-      <c r="G166" s="9">
+      <c r="I166" s="9">
         <v>15</v>
       </c>
-      <c r="H166" s="9">
+      <c r="J166" s="9">
         <v>12</v>
       </c>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-      <c r="L166" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M166" s="9">
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O166" s="9">
         <v>10</v>
       </c>
-      <c r="N166" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O166" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P166" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
+      <c r="P166" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q166" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R166" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="S166" s="4"/>
-      <c r="T166" s="8"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="8"/>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
@@ -7919,54 +8287,56 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
-    </row>
-    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E167" s="9">
+        <v>90</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="9">
         <v>5</v>
       </c>
-      <c r="F167" s="9">
+      <c r="H167" s="9">
         <v>23</v>
       </c>
-      <c r="G167" s="9">
+      <c r="I167" s="9">
         <v>15</v>
       </c>
-      <c r="H167" s="9">
+      <c r="J167" s="9">
         <v>12</v>
       </c>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="L167" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M167" s="9">
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O167" s="9">
         <v>10</v>
       </c>
-      <c r="N167" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O167" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P167" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
+      <c r="P167" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q167" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R167" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S167" s="4"/>
-      <c r="T167" s="8"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="8"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
@@ -7974,54 +8344,56 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
-    </row>
-    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E168" s="9">
+        <v>91</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="9">
         <v>5</v>
       </c>
-      <c r="F168" s="9">
+      <c r="H168" s="9">
         <v>23</v>
       </c>
-      <c r="G168" s="9">
+      <c r="I168" s="9">
         <v>15</v>
       </c>
-      <c r="H168" s="9">
+      <c r="J168" s="9">
         <v>12</v>
       </c>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M168" s="9">
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O168" s="9">
         <v>10</v>
       </c>
-      <c r="N168" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O168" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P168" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
+      <c r="P168" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q168" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R168" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="S168" s="4"/>
-      <c r="T168" s="8"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="8"/>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
@@ -8029,54 +8401,56 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
-    </row>
-    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E169" s="9">
+        <v>92</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="9">
         <v>5</v>
       </c>
-      <c r="F169" s="9">
+      <c r="H169" s="9">
         <v>23</v>
       </c>
-      <c r="G169" s="9">
+      <c r="I169" s="9">
         <v>15</v>
       </c>
-      <c r="H169" s="9">
+      <c r="J169" s="9">
         <v>12</v>
       </c>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M169" s="9">
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O169" s="9">
         <v>10</v>
       </c>
-      <c r="N169" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O169" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P169" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
+      <c r="P169" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q169" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R169" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="S169" s="4"/>
-      <c r="T169" s="8"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="8"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
@@ -8084,54 +8458,56 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
-    </row>
-    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E170" s="9">
+        <v>93</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="9">
         <v>5</v>
       </c>
-      <c r="F170" s="9">
+      <c r="H170" s="9">
         <v>23</v>
       </c>
-      <c r="G170" s="9">
+      <c r="I170" s="9">
         <v>15</v>
       </c>
-      <c r="H170" s="9">
+      <c r="J170" s="9">
         <v>12</v>
       </c>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M170" s="9">
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O170" s="9">
         <v>10</v>
       </c>
-      <c r="N170" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O170" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P170" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
+      <c r="P170" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q170" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R170" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="S170" s="4"/>
-      <c r="T170" s="8"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="8"/>
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
@@ -8139,54 +8515,56 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
-    </row>
-    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="5">
         <v>13</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="9">
         <v>5</v>
       </c>
-      <c r="F171" s="9">
+      <c r="H171" s="9">
         <v>23</v>
       </c>
-      <c r="G171" s="9">
+      <c r="I171" s="9">
         <v>15</v>
       </c>
-      <c r="H171" s="9">
+      <c r="J171" s="9">
         <v>12</v>
       </c>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="5">
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="5">
         <v>13</v>
       </c>
-      <c r="M171" s="9">
+      <c r="O171" s="9">
         <v>10</v>
       </c>
-      <c r="N171" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O171" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P171" s="5">
+      <c r="P171" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q171" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R171" s="5">
         <v>13</v>
       </c>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
       <c r="S171" s="4"/>
-      <c r="T171" s="8"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="8"/>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
@@ -8194,54 +8572,56 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
-    </row>
-    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="9">
+        <v>98</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="9">
         <v>14</v>
       </c>
-      <c r="F172" s="9">
+      <c r="H172" s="9">
         <v>20</v>
       </c>
-      <c r="G172" s="9">
+      <c r="I172" s="9">
         <v>11</v>
       </c>
-      <c r="H172" s="9">
+      <c r="J172" s="9">
         <v>11</v>
       </c>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="5">
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="5">
         <v>51</v>
       </c>
-      <c r="M172" s="9">
+      <c r="O172" s="9">
         <v>10</v>
       </c>
-      <c r="N172" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O172" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P172" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
+      <c r="P172" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q172" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R172" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="S172" s="4"/>
-      <c r="T172" s="8"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="8"/>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
@@ -8249,54 +8629,56 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
-    </row>
-    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E173" s="9">
+        <v>108</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="9">
         <v>14</v>
       </c>
-      <c r="F173" s="9">
+      <c r="H173" s="9">
         <v>20</v>
       </c>
-      <c r="G173" s="9">
+      <c r="I173" s="9">
         <v>11</v>
       </c>
-      <c r="H173" s="9">
+      <c r="J173" s="9">
         <v>11</v>
       </c>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="5">
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="5">
         <v>52</v>
       </c>
-      <c r="M173" s="9">
+      <c r="O173" s="9">
         <v>10</v>
       </c>
-      <c r="N173" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O173" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P173" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
+      <c r="P173" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q173" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R173" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="S173" s="4"/>
-      <c r="T173" s="8"/>
-      <c r="U173" s="3"/>
-      <c r="V173" s="3"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="8"/>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
@@ -8304,54 +8686,56 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
-    </row>
-    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E174" s="9">
+        <v>111</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="9">
         <v>14</v>
       </c>
-      <c r="F174" s="9">
+      <c r="H174" s="9">
         <v>20</v>
       </c>
-      <c r="G174" s="9">
+      <c r="I174" s="9">
         <v>11</v>
       </c>
-      <c r="H174" s="9">
+      <c r="J174" s="9">
         <v>11</v>
       </c>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="5">
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="5">
         <v>53</v>
       </c>
-      <c r="M174" s="9">
+      <c r="O174" s="9">
         <v>10</v>
       </c>
-      <c r="N174" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O174" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P174" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
+      <c r="P174" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q174" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R174" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="S174" s="4"/>
-      <c r="T174" s="8"/>
-      <c r="U174" s="3"/>
-      <c r="V174" s="3"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="8"/>
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
@@ -8359,54 +8743,56 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
-    </row>
-    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E175" s="9">
+        <v>114</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="9">
         <v>14</v>
       </c>
-      <c r="F175" s="9">
+      <c r="H175" s="9">
         <v>20</v>
       </c>
-      <c r="G175" s="9">
+      <c r="I175" s="9">
         <v>11</v>
       </c>
-      <c r="H175" s="9">
+      <c r="J175" s="9">
         <v>11</v>
       </c>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="5">
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="5">
         <v>54</v>
       </c>
-      <c r="M175" s="9">
+      <c r="O175" s="9">
         <v>10</v>
       </c>
-      <c r="N175" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O175" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P175" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
+      <c r="P175" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q175" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R175" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="S175" s="4"/>
-      <c r="T175" s="8"/>
-      <c r="U175" s="3"/>
-      <c r="V175" s="3"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="8"/>
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
@@ -8414,54 +8800,56 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
-    </row>
-    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD175" s="3"/>
+      <c r="AE175" s="3"/>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E176" s="9">
+        <v>117</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="9">
         <v>14</v>
       </c>
-      <c r="F176" s="9">
+      <c r="H176" s="9">
         <v>20</v>
       </c>
-      <c r="G176" s="9">
+      <c r="I176" s="9">
         <v>11</v>
       </c>
-      <c r="H176" s="9">
+      <c r="J176" s="9">
         <v>11</v>
       </c>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="5">
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="5">
         <v>55</v>
       </c>
-      <c r="M176" s="9">
+      <c r="O176" s="9">
         <v>10</v>
       </c>
-      <c r="N176" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O176" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P176" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
+      <c r="P176" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q176" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R176" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="S176" s="4"/>
-      <c r="T176" s="8"/>
-      <c r="U176" s="3"/>
-      <c r="V176" s="3"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="8"/>
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
@@ -8469,54 +8857,56 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
-    </row>
-    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E177" s="9">
+        <v>120</v>
+      </c>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="9">
         <v>14</v>
       </c>
-      <c r="F177" s="9">
+      <c r="H177" s="9">
         <v>20</v>
       </c>
-      <c r="G177" s="9">
+      <c r="I177" s="9">
         <v>11</v>
       </c>
-      <c r="H177" s="9">
+      <c r="J177" s="9">
         <v>11</v>
       </c>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
       <c r="K177" s="4"/>
-      <c r="L177" s="5">
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="5">
         <v>56</v>
       </c>
-      <c r="M177" s="9">
+      <c r="O177" s="9">
         <v>10</v>
       </c>
-      <c r="N177" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O177" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P177" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q177" s="4"/>
-      <c r="R177" s="4"/>
+      <c r="P177" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q177" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R177" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="S177" s="4"/>
-      <c r="T177" s="8"/>
-      <c r="U177" s="3"/>
-      <c r="V177" s="3"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="8"/>
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
@@ -8524,54 +8914,56 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
-    </row>
-    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E178" s="9">
+        <v>123</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="9">
         <v>14</v>
       </c>
-      <c r="F178" s="9">
+      <c r="H178" s="9">
         <v>20</v>
       </c>
-      <c r="G178" s="9">
+      <c r="I178" s="9">
         <v>11</v>
       </c>
-      <c r="H178" s="9">
+      <c r="J178" s="9">
         <v>11</v>
       </c>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
       <c r="K178" s="4"/>
-      <c r="L178" s="5">
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="5">
         <v>57</v>
       </c>
-      <c r="M178" s="9">
+      <c r="O178" s="9">
         <v>10</v>
       </c>
-      <c r="N178" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O178" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P178" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
+      <c r="P178" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q178" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R178" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="S178" s="4"/>
-      <c r="T178" s="8"/>
-      <c r="U178" s="3"/>
-      <c r="V178" s="3"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="8"/>
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
@@ -8579,8 +8971,10 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
-    </row>
-    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD178" s="3"/>
+      <c r="AE178" s="3"/>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -8600,9 +8994,9 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
-      <c r="T179" s="8"/>
-      <c r="U179" s="3"/>
-      <c r="V179" s="3"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="8"/>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
@@ -8610,8 +9004,10 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
-    </row>
-    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="3"/>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -8631,9 +9027,9 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
-      <c r="T180" s="8"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="8"/>
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
@@ -8641,6 +9037,8 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
+      <c r="AD180" s="3"/>
+      <c r="AE180" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -8674,52 +9072,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
